--- a/沥青/data_input/沥青月差.xlsx
+++ b/沥青/data_input/沥青月差.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3651"/>
+  <dimension ref="A1:J3654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65936,7 +65936,7 @@
       </c>
       <c r="I2963" t="inlineStr"/>
       <c r="J2963" t="n">
-        <v>33.8357</v>
+        <v>33.8462</v>
       </c>
     </row>
     <row r="2964">
@@ -65968,7 +65968,7 @@
         <v>-1.2</v>
       </c>
       <c r="J2964" t="n">
-        <v>35.9585</v>
+        <v>35.9791</v>
       </c>
     </row>
     <row r="2965">
@@ -65994,7 +65994,7 @@
       </c>
       <c r="I2965" t="inlineStr"/>
       <c r="J2965" t="n">
-        <v>34.6445</v>
+        <v>34.6523</v>
       </c>
     </row>
     <row r="2966">
@@ -66020,7 +66020,7 @@
       </c>
       <c r="I2966" t="inlineStr"/>
       <c r="J2966" t="n">
-        <v>27.5816</v>
+        <v>27.6077</v>
       </c>
     </row>
     <row r="2967">
@@ -66062,7 +66062,7 @@
       </c>
       <c r="I2968" t="inlineStr"/>
       <c r="J2968" t="n">
-        <v>20.0436</v>
+        <v>20.0803</v>
       </c>
     </row>
     <row r="2969">
@@ -66090,7 +66090,7 @@
         <v>0.4</v>
       </c>
       <c r="J2969" t="n">
-        <v>19.4425</v>
+        <v>19.4801</v>
       </c>
     </row>
     <row r="2970">
@@ -66116,7 +66116,7 @@
       </c>
       <c r="I2970" t="inlineStr"/>
       <c r="J2970" t="n">
-        <v>25.425</v>
+        <v>25.4437</v>
       </c>
     </row>
     <row r="2971">
@@ -66142,7 +66142,7 @@
       </c>
       <c r="I2971" t="inlineStr"/>
       <c r="J2971" t="n">
-        <v>32.303</v>
+        <v>32.3302</v>
       </c>
     </row>
     <row r="2972">
@@ -66168,7 +66168,7 @@
       </c>
       <c r="I2972" t="inlineStr"/>
       <c r="J2972" t="n">
-        <v>31.1034</v>
+        <v>31.1316</v>
       </c>
     </row>
     <row r="2973">
@@ -66194,7 +66194,7 @@
       </c>
       <c r="I2973" t="inlineStr"/>
       <c r="J2973" t="n">
-        <v>31.8329</v>
+        <v>31.8585</v>
       </c>
     </row>
     <row r="2974">
@@ -66226,7 +66226,7 @@
         <v>-2.2</v>
       </c>
       <c r="J2974" t="n">
-        <v>34.4885</v>
+        <v>34.5091</v>
       </c>
     </row>
     <row r="2975">
@@ -66252,7 +66252,7 @@
       </c>
       <c r="I2975" t="inlineStr"/>
       <c r="J2975" t="n">
-        <v>29.59</v>
+        <v>29.5995</v>
       </c>
     </row>
     <row r="2976">
@@ -66278,7 +66278,7 @@
       </c>
       <c r="I2976" t="inlineStr"/>
       <c r="J2976" t="n">
-        <v>31.0613</v>
+        <v>31.0791</v>
       </c>
     </row>
     <row r="2977">
@@ -66304,7 +66304,7 @@
       </c>
       <c r="I2977" t="inlineStr"/>
       <c r="J2977" t="n">
-        <v>31.6334</v>
+        <v>31.6481</v>
       </c>
     </row>
     <row r="2978">
@@ -66330,7 +66330,7 @@
       </c>
       <c r="I2978" t="inlineStr"/>
       <c r="J2978" t="n">
-        <v>30.4437</v>
+        <v>30.4589</v>
       </c>
     </row>
     <row r="2979">
@@ -66362,7 +66362,7 @@
         <v>-5.1</v>
       </c>
       <c r="J2979" t="n">
-        <v>32.7101</v>
+        <v>32.7248</v>
       </c>
     </row>
     <row r="2980">
@@ -66404,7 +66404,7 @@
       </c>
       <c r="I2981" t="inlineStr"/>
       <c r="J2981" t="n">
-        <v>22.7542</v>
+        <v>22.769</v>
       </c>
     </row>
     <row r="2982">
@@ -66430,7 +66430,7 @@
       </c>
       <c r="I2982" t="inlineStr"/>
       <c r="J2982" t="n">
-        <v>23.5889</v>
+        <v>23.6154</v>
       </c>
     </row>
     <row r="2983">
@@ -66456,7 +66456,7 @@
       </c>
       <c r="I2983" t="inlineStr"/>
       <c r="J2983" t="n">
-        <v>16.559</v>
+        <v>16.5862</v>
       </c>
     </row>
     <row r="2984">
@@ -66482,7 +66482,7 @@
       </c>
       <c r="I2984" t="inlineStr"/>
       <c r="J2984" t="n">
-        <v>17.0763</v>
+        <v>17.0993</v>
       </c>
     </row>
     <row r="2985">
@@ -66514,7 +66514,7 @@
         <v>2.4</v>
       </c>
       <c r="J2985" t="n">
-        <v>18.2754</v>
+        <v>18.2924</v>
       </c>
     </row>
     <row r="2986">
@@ -66588,7 +66588,7 @@
       </c>
       <c r="I2989" t="inlineStr"/>
       <c r="J2989" t="n">
-        <v>11.8777</v>
+        <v>11.8987</v>
       </c>
     </row>
     <row r="2990">
@@ -66620,7 +66620,7 @@
         <v>1.6</v>
       </c>
       <c r="J2990" t="n">
-        <v>13.9577</v>
+        <v>13.9745</v>
       </c>
     </row>
     <row r="2991">
@@ -66662,7 +66662,7 @@
       </c>
       <c r="I2992" t="inlineStr"/>
       <c r="J2992" t="n">
-        <v>16.9534</v>
+        <v>16.9608</v>
       </c>
     </row>
     <row r="2993">
@@ -66688,7 +66688,7 @@
       </c>
       <c r="I2993" t="inlineStr"/>
       <c r="J2993" t="n">
-        <v>16.7672</v>
+        <v>16.7839</v>
       </c>
     </row>
     <row r="2994">
@@ -66714,7 +66714,7 @@
       </c>
       <c r="I2994" t="inlineStr"/>
       <c r="J2994" t="n">
-        <v>14.0764</v>
+        <v>14.0969</v>
       </c>
     </row>
     <row r="2995">
@@ -66740,7 +66740,7 @@
       </c>
       <c r="I2995" t="inlineStr"/>
       <c r="J2995" t="n">
-        <v>15.1412</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="2996">
@@ -66798,7 +66798,7 @@
       </c>
       <c r="I2997" t="inlineStr"/>
       <c r="J2997" t="n">
-        <v>19.1311</v>
+        <v>19.1396</v>
       </c>
     </row>
     <row r="2998">
@@ -66824,7 +66824,7 @@
       </c>
       <c r="I2998" t="inlineStr"/>
       <c r="J2998" t="n">
-        <v>20.7245</v>
+        <v>20.738</v>
       </c>
     </row>
     <row r="2999">
@@ -66850,7 +66850,7 @@
       </c>
       <c r="I2999" t="inlineStr"/>
       <c r="J2999" t="n">
-        <v>20.7317</v>
+        <v>20.742</v>
       </c>
     </row>
     <row r="3000">
@@ -66876,7 +66876,7 @@
       </c>
       <c r="I3000" t="inlineStr"/>
       <c r="J3000" t="n">
-        <v>23.477</v>
+        <v>23.4796</v>
       </c>
     </row>
     <row r="3001">
@@ -66908,7 +66908,7 @@
         <v>7.6</v>
       </c>
       <c r="J3001" t="n">
-        <v>22.8115</v>
+        <v>22.8131</v>
       </c>
     </row>
     <row r="3002">
@@ -66934,7 +66934,7 @@
       </c>
       <c r="I3002" t="inlineStr"/>
       <c r="J3002" t="n">
-        <v>19.0518</v>
+        <v>19.0544</v>
       </c>
     </row>
     <row r="3003">
@@ -66960,7 +66960,7 @@
       </c>
       <c r="I3003" t="inlineStr"/>
       <c r="J3003" t="n">
-        <v>19.0993</v>
+        <v>19.1048</v>
       </c>
     </row>
     <row r="3004">
@@ -66986,7 +66986,7 @@
       </c>
       <c r="I3004" t="inlineStr"/>
       <c r="J3004" t="n">
-        <v>15.7954</v>
+        <v>15.8048</v>
       </c>
     </row>
     <row r="3005">
@@ -67012,7 +67012,7 @@
       </c>
       <c r="I3005" t="inlineStr"/>
       <c r="J3005" t="n">
-        <v>3.2365</v>
+        <v>3.2647</v>
       </c>
     </row>
     <row r="3006">
@@ -67044,7 +67044,7 @@
         <v>3.8</v>
       </c>
       <c r="J3006" t="n">
-        <v>2.9923</v>
+        <v>3.0201</v>
       </c>
     </row>
     <row r="3007">
@@ -67068,7 +67068,7 @@
       </c>
       <c r="I3007" t="inlineStr"/>
       <c r="J3007" t="n">
-        <v>6.697</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="3008">
@@ -67094,7 +67094,7 @@
       </c>
       <c r="I3008" t="inlineStr"/>
       <c r="J3008" t="n">
-        <v>4.8222</v>
+        <v>4.8483</v>
       </c>
     </row>
     <row r="3009">
@@ -67120,7 +67120,7 @@
       </c>
       <c r="I3009" t="inlineStr"/>
       <c r="J3009" t="n">
-        <v>5.9</v>
+        <v>5.9247</v>
       </c>
     </row>
     <row r="3010">
@@ -67146,7 +67146,7 @@
       </c>
       <c r="I3010" t="inlineStr"/>
       <c r="J3010" t="n">
-        <v>8.7698</v>
+        <v>8.7898</v>
       </c>
     </row>
     <row r="3011">
@@ -67178,7 +67178,7 @@
         <v>4.6</v>
       </c>
       <c r="J3011" t="n">
-        <v>7.2644</v>
+        <v>7.2818</v>
       </c>
     </row>
     <row r="3012">
@@ -67256,7 +67256,7 @@
       </c>
       <c r="I3014" t="inlineStr"/>
       <c r="J3014" t="n">
-        <v>9.7849</v>
+        <v>9.794499999999999</v>
       </c>
     </row>
     <row r="3015">
@@ -67282,7 +67282,7 @@
       </c>
       <c r="I3015" t="inlineStr"/>
       <c r="J3015" t="n">
-        <v>7.6705</v>
+        <v>7.6971</v>
       </c>
     </row>
     <row r="3016">
@@ -67314,7 +67314,7 @@
         <v>2.6</v>
       </c>
       <c r="J3016" t="n">
-        <v>6.8811</v>
+        <v>6.9109</v>
       </c>
     </row>
     <row r="3017">
@@ -67340,7 +67340,7 @@
       </c>
       <c r="I3017" t="inlineStr"/>
       <c r="J3017" t="n">
-        <v>-2.0477</v>
+        <v>-2.029</v>
       </c>
     </row>
     <row r="3018">
@@ -67366,7 +67366,7 @@
       </c>
       <c r="I3018" t="inlineStr"/>
       <c r="J3018" t="n">
-        <v>2.4055</v>
+        <v>2.4387</v>
       </c>
     </row>
     <row r="3019">
@@ -67392,7 +67392,7 @@
       </c>
       <c r="I3019" t="inlineStr"/>
       <c r="J3019" t="n">
-        <v>6.2158</v>
+        <v>6.2441</v>
       </c>
     </row>
     <row r="3020">
@@ -67418,7 +67418,7 @@
       </c>
       <c r="I3020" t="inlineStr"/>
       <c r="J3020" t="n">
-        <v>2.1113</v>
+        <v>2.1468</v>
       </c>
     </row>
     <row r="3021">
@@ -67450,7 +67450,7 @@
         <v>2.5</v>
       </c>
       <c r="J3021" t="n">
-        <v>5.8005</v>
+        <v>5.8262</v>
       </c>
     </row>
     <row r="3022">
@@ -67474,7 +67474,7 @@
       </c>
       <c r="I3022" t="inlineStr"/>
       <c r="J3022" t="n">
-        <v>6.1482</v>
+        <v>6.1618</v>
       </c>
     </row>
     <row r="3023">
@@ -67500,7 +67500,7 @@
       </c>
       <c r="I3023" t="inlineStr"/>
       <c r="J3023" t="n">
-        <v>6.902</v>
+        <v>6.9271</v>
       </c>
     </row>
     <row r="3024">
@@ -67526,7 +67526,7 @@
       </c>
       <c r="I3024" t="inlineStr"/>
       <c r="J3024" t="n">
-        <v>-1.0876</v>
+        <v>-1.0509</v>
       </c>
     </row>
     <row r="3025">
@@ -67606,7 +67606,7 @@
       </c>
       <c r="I3028" t="inlineStr"/>
       <c r="J3028" t="n">
-        <v>-12.798</v>
+        <v>-12.7741</v>
       </c>
     </row>
     <row r="3029">
@@ -67632,7 +67632,7 @@
       </c>
       <c r="I3029" t="inlineStr"/>
       <c r="J3029" t="n">
-        <v>-14.7623</v>
+        <v>-14.7144</v>
       </c>
     </row>
     <row r="3030">
@@ -67658,7 +67658,7 @@
       </c>
       <c r="I3030" t="inlineStr"/>
       <c r="J3030" t="n">
-        <v>-15.6459</v>
+        <v>-15.5973</v>
       </c>
     </row>
     <row r="3031">
@@ -67684,7 +67684,7 @@
       </c>
       <c r="I3031" t="inlineStr"/>
       <c r="J3031" t="n">
-        <v>-16.5111</v>
+        <v>-16.4615</v>
       </c>
     </row>
     <row r="3032">
@@ -67716,7 +67716,7 @@
         <v>-2.2</v>
       </c>
       <c r="J3032" t="n">
-        <v>-24.3928</v>
+        <v>-24.3356</v>
       </c>
     </row>
     <row r="3033">
@@ -67742,7 +67742,7 @@
       </c>
       <c r="I3033" t="inlineStr"/>
       <c r="J3033" t="n">
-        <v>-41.7533</v>
+        <v>-41.7143</v>
       </c>
     </row>
     <row r="3034">
@@ -67766,7 +67766,7 @@
       </c>
       <c r="I3034" t="inlineStr"/>
       <c r="J3034" t="n">
-        <v>-40.2612</v>
+        <v>-40.1855</v>
       </c>
     </row>
     <row r="3035">
@@ -67792,7 +67792,7 @@
       </c>
       <c r="I3035" t="inlineStr"/>
       <c r="J3035" t="n">
-        <v>-35.0295</v>
+        <v>-34.96</v>
       </c>
     </row>
     <row r="3036">
@@ -67818,7 +67818,7 @@
       </c>
       <c r="I3036" t="inlineStr"/>
       <c r="J3036" t="n">
-        <v>-35.0535</v>
+        <v>-34.9832</v>
       </c>
     </row>
     <row r="3037">
@@ -67850,7 +67850,7 @@
         <v>-3.7</v>
       </c>
       <c r="J3037" t="n">
-        <v>-30.99</v>
+        <v>-30.9247</v>
       </c>
     </row>
     <row r="3038">
@@ -67876,7 +67876,7 @@
       </c>
       <c r="I3038" t="inlineStr"/>
       <c r="J3038" t="n">
-        <v>-18.7027</v>
+        <v>-18.674</v>
       </c>
     </row>
     <row r="3039">
@@ -67902,7 +67902,7 @@
       </c>
       <c r="I3039" t="inlineStr"/>
       <c r="J3039" t="n">
-        <v>-14.8446</v>
+        <v>-14.7916</v>
       </c>
     </row>
     <row r="3040">
@@ -67928,7 +67928,7 @@
       </c>
       <c r="I3040" t="inlineStr"/>
       <c r="J3040" t="n">
-        <v>-9.984400000000001</v>
+        <v>-9.938499999999999</v>
       </c>
     </row>
     <row r="3041">
@@ -67954,7 +67954,7 @@
       </c>
       <c r="I3041" t="inlineStr"/>
       <c r="J3041" t="n">
-        <v>-9.529299999999999</v>
+        <v>-9.479699999999999</v>
       </c>
     </row>
     <row r="3042">
@@ -67986,7 +67986,7 @@
         <v>-5.9</v>
       </c>
       <c r="J3042" t="n">
-        <v>-7.7579</v>
+        <v>-7.7088</v>
       </c>
     </row>
     <row r="3043">
@@ -68012,7 +68012,7 @@
       </c>
       <c r="I3043" t="inlineStr"/>
       <c r="J3043" t="n">
-        <v>-7.6471</v>
+        <v>-7.6209</v>
       </c>
     </row>
     <row r="3044">
@@ -68038,7 +68038,7 @@
       </c>
       <c r="I3044" t="inlineStr"/>
       <c r="J3044" t="n">
-        <v>-2.0463</v>
+        <v>-2.0025</v>
       </c>
     </row>
     <row r="3045">
@@ -68064,7 +68064,7 @@
       </c>
       <c r="I3045" t="inlineStr"/>
       <c r="J3045" t="n">
-        <v>-9.1149</v>
+        <v>-9.0663</v>
       </c>
     </row>
     <row r="3046">
@@ -68090,7 +68090,7 @@
       </c>
       <c r="I3046" t="inlineStr"/>
       <c r="J3046" t="n">
-        <v>-9.879099999999999</v>
+        <v>-9.827500000000001</v>
       </c>
     </row>
     <row r="3047">
@@ -68122,7 +68122,7 @@
         <v>-11.9</v>
       </c>
       <c r="J3047" t="n">
-        <v>-8.157999999999999</v>
+        <v>-8.1088</v>
       </c>
     </row>
     <row r="3048">
@@ -68174,7 +68174,7 @@
       </c>
       <c r="I3049" t="inlineStr"/>
       <c r="J3049" t="n">
-        <v>-17.4548</v>
+        <v>-17.423</v>
       </c>
     </row>
     <row r="3050">
@@ -68200,7 +68200,7 @@
       </c>
       <c r="I3050" t="inlineStr"/>
       <c r="J3050" t="n">
-        <v>-19.8213</v>
+        <v>-19.7577</v>
       </c>
     </row>
     <row r="3051">
@@ -68226,7 +68226,7 @@
       </c>
       <c r="I3051" t="inlineStr"/>
       <c r="J3051" t="n">
-        <v>-26.8916</v>
+        <v>-26.819</v>
       </c>
     </row>
     <row r="3052">
@@ -68258,7 +68258,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="J3052" t="n">
-        <v>-25.2849</v>
+        <v>-25.2205</v>
       </c>
     </row>
     <row r="3053">
@@ -68284,7 +68284,7 @@
       </c>
       <c r="I3053" t="inlineStr"/>
       <c r="J3053" t="n">
-        <v>-31.8443</v>
+        <v>-31.8083</v>
       </c>
     </row>
     <row r="3054">
@@ -68310,7 +68310,7 @@
       </c>
       <c r="I3054" t="inlineStr"/>
       <c r="J3054" t="n">
-        <v>-34.2408</v>
+        <v>-34.1617</v>
       </c>
     </row>
     <row r="3055">
@@ -68336,7 +68336,7 @@
       </c>
       <c r="I3055" t="inlineStr"/>
       <c r="J3055" t="n">
-        <v>-39.0153</v>
+        <v>-38.9255</v>
       </c>
     </row>
     <row r="3056">
@@ -68362,7 +68362,7 @@
       </c>
       <c r="I3056" t="inlineStr"/>
       <c r="J3056" t="n">
-        <v>-42.0843</v>
+        <v>-41.9902</v>
       </c>
     </row>
     <row r="3057">
@@ -68394,7 +68394,7 @@
         <v>-6.3</v>
       </c>
       <c r="J3057" t="n">
-        <v>-40.0901</v>
+        <v>-40.0002</v>
       </c>
     </row>
     <row r="3058">
@@ -68420,7 +68420,7 @@
       </c>
       <c r="I3058" t="inlineStr"/>
       <c r="J3058" t="n">
-        <v>-46.4215</v>
+        <v>-46.3718</v>
       </c>
     </row>
     <row r="3059">
@@ -68446,7 +68446,7 @@
       </c>
       <c r="I3059" t="inlineStr"/>
       <c r="J3059" t="n">
-        <v>-48.8784</v>
+        <v>-48.9028</v>
       </c>
     </row>
     <row r="3060">
@@ -68472,7 +68472,7 @@
       </c>
       <c r="I3060" t="inlineStr"/>
       <c r="J3060" t="n">
-        <v>-49.8605</v>
+        <v>-49.884</v>
       </c>
     </row>
     <row r="3061">
@@ -68498,7 +68498,7 @@
       </c>
       <c r="I3061" t="inlineStr"/>
       <c r="J3061" t="n">
-        <v>-51.987</v>
+        <v>-52.0067</v>
       </c>
     </row>
     <row r="3062">
@@ -68530,7 +68530,7 @@
         <v>0.5</v>
       </c>
       <c r="J3062" t="n">
-        <v>-55.797</v>
+        <v>-55.8114</v>
       </c>
     </row>
     <row r="3063">
@@ -68556,7 +68556,7 @@
       </c>
       <c r="I3063" t="inlineStr"/>
       <c r="J3063" t="n">
-        <v>-56.6444</v>
+        <v>-56.6496</v>
       </c>
     </row>
     <row r="3064">
@@ -68582,7 +68582,7 @@
       </c>
       <c r="I3064" t="inlineStr"/>
       <c r="J3064" t="n">
-        <v>-52.7458</v>
+        <v>-52.7592</v>
       </c>
     </row>
     <row r="3065">
@@ -68608,7 +68608,7 @@
       </c>
       <c r="I3065" t="inlineStr"/>
       <c r="J3065" t="n">
-        <v>-50.2515</v>
+        <v>-50.2674</v>
       </c>
     </row>
     <row r="3066">
@@ -68634,7 +68634,7 @@
       </c>
       <c r="I3066" t="inlineStr"/>
       <c r="J3066" t="n">
-        <v>-41.2901</v>
+        <v>-41.3188</v>
       </c>
     </row>
     <row r="3067">
@@ -68666,7 +68666,7 @@
         <v>9</v>
       </c>
       <c r="J3067" t="n">
-        <v>-38.114</v>
+        <v>-38.1465</v>
       </c>
     </row>
     <row r="3068">
@@ -68692,7 +68692,7 @@
       </c>
       <c r="I3068" t="inlineStr"/>
       <c r="J3068" t="n">
-        <v>-28.3536</v>
+        <v>-28.3711</v>
       </c>
     </row>
     <row r="3069">
@@ -68718,7 +68718,7 @@
       </c>
       <c r="I3069" t="inlineStr"/>
       <c r="J3069" t="n">
-        <v>-29.916</v>
+        <v>-29.9476</v>
       </c>
     </row>
     <row r="3070">
@@ -68744,7 +68744,7 @@
       </c>
       <c r="I3070" t="inlineStr"/>
       <c r="J3070" t="n">
-        <v>-27.0131</v>
+        <v>-27.0496</v>
       </c>
     </row>
     <row r="3071">
@@ -68770,7 +68770,7 @@
       </c>
       <c r="I3071" t="inlineStr"/>
       <c r="J3071" t="n">
-        <v>-24.6811</v>
+        <v>-24.7143</v>
       </c>
     </row>
     <row r="3072">
@@ -68802,7 +68802,7 @@
         <v>9.5</v>
       </c>
       <c r="J3072" t="n">
-        <v>-22.4815</v>
+        <v>-22.5137</v>
       </c>
     </row>
     <row r="3073">
@@ -68828,7 +68828,7 @@
       </c>
       <c r="I3073" t="inlineStr"/>
       <c r="J3073" t="n">
-        <v>-21.8996</v>
+        <v>-21.9152</v>
       </c>
     </row>
     <row r="3074">
@@ -68854,7 +68854,7 @@
       </c>
       <c r="I3074" t="inlineStr"/>
       <c r="J3074" t="n">
-        <v>-24.0537</v>
+        <v>-24.0794</v>
       </c>
     </row>
     <row r="3075">
@@ -68880,7 +68880,7 @@
       </c>
       <c r="I3075" t="inlineStr"/>
       <c r="J3075" t="n">
-        <v>-20.6511</v>
+        <v>-20.6807</v>
       </c>
     </row>
     <row r="3076">
@@ -68906,7 +68906,7 @@
       </c>
       <c r="I3076" t="inlineStr"/>
       <c r="J3076" t="n">
-        <v>-22.5026</v>
+        <v>-22.5302</v>
       </c>
     </row>
     <row r="3077">
@@ -68938,7 +68938,7 @@
         <v>6.3</v>
       </c>
       <c r="J3077" t="n">
-        <v>-23.2671</v>
+        <v>-23.2924</v>
       </c>
     </row>
     <row r="3078">
@@ -68962,7 +68962,7 @@
       </c>
       <c r="I3078" t="inlineStr"/>
       <c r="J3078" t="n">
-        <v>-24.5512</v>
+        <v>-24.5617</v>
       </c>
     </row>
     <row r="3079">
@@ -68988,7 +68988,7 @@
       </c>
       <c r="I3079" t="inlineStr"/>
       <c r="J3079" t="n">
-        <v>-19.6908</v>
+        <v>-19.7214</v>
       </c>
     </row>
     <row r="3080">
@@ -69014,7 +69014,7 @@
       </c>
       <c r="I3080" t="inlineStr"/>
       <c r="J3080" t="n">
-        <v>-22.975</v>
+        <v>-22.998</v>
       </c>
     </row>
     <row r="3081">
@@ -69040,7 +69040,7 @@
       </c>
       <c r="I3081" t="inlineStr"/>
       <c r="J3081" t="n">
-        <v>-24.8263</v>
+        <v>-24.8454</v>
       </c>
     </row>
     <row r="3082">
@@ -69072,7 +69072,7 @@
         <v>3.2</v>
       </c>
       <c r="J3082" t="n">
-        <v>-28.052</v>
+        <v>-28.0653</v>
       </c>
     </row>
     <row r="3083">
@@ -69098,7 +69098,7 @@
       </c>
       <c r="I3083" t="inlineStr"/>
       <c r="J3083" t="n">
-        <v>-31.1978</v>
+        <v>-31.2039</v>
       </c>
     </row>
     <row r="3084">
@@ -69124,7 +69124,7 @@
       </c>
       <c r="I3084" t="inlineStr"/>
       <c r="J3084" t="n">
-        <v>-29.2001</v>
+        <v>-29.2117</v>
       </c>
     </row>
     <row r="3085">
@@ -69150,7 +69150,7 @@
       </c>
       <c r="I3085" t="inlineStr"/>
       <c r="J3085" t="n">
-        <v>-32.2482</v>
+        <v>-32.256</v>
       </c>
     </row>
     <row r="3086">
@@ -69176,7 +69176,7 @@
       </c>
       <c r="I3086" t="inlineStr"/>
       <c r="J3086" t="n">
-        <v>-33.2541</v>
+        <v>-33.259</v>
       </c>
     </row>
     <row r="3087">
@@ -69208,7 +69208,7 @@
         <v>2.5</v>
       </c>
       <c r="J3087" t="n">
-        <v>-30.5137</v>
+        <v>-30.5225</v>
       </c>
     </row>
     <row r="3088">
@@ -69234,7 +69234,7 @@
       </c>
       <c r="I3088" t="inlineStr"/>
       <c r="J3088" t="n">
-        <v>-13.8181</v>
+        <v>-13.8303</v>
       </c>
     </row>
     <row r="3089">
@@ -69260,7 +69260,7 @@
       </c>
       <c r="I3089" t="inlineStr"/>
       <c r="J3089" t="n">
-        <v>-12.5123</v>
+        <v>-12.5372</v>
       </c>
     </row>
     <row r="3090">
@@ -69286,7 +69286,7 @@
       </c>
       <c r="I3090" t="inlineStr"/>
       <c r="J3090" t="n">
-        <v>-16.5432</v>
+        <v>-16.5634</v>
       </c>
     </row>
     <row r="3091">
@@ -69312,7 +69312,7 @@
       </c>
       <c r="I3091" t="inlineStr"/>
       <c r="J3091" t="n">
-        <v>-19.0591</v>
+        <v>-19.0734</v>
       </c>
     </row>
     <row r="3092">
@@ -69344,7 +69344,7 @@
         <v>-9.4</v>
       </c>
       <c r="J3092" t="n">
-        <v>-18.5914</v>
+        <v>-18.6038</v>
       </c>
     </row>
     <row r="3093">
@@ -69370,7 +69370,7 @@
       </c>
       <c r="I3093" t="inlineStr"/>
       <c r="J3093" t="n">
-        <v>-16.717</v>
+        <v>-16.7265</v>
       </c>
     </row>
     <row r="3094">
@@ -69396,7 +69396,7 @@
       </c>
       <c r="I3094" t="inlineStr"/>
       <c r="J3094" t="n">
-        <v>-21.3349</v>
+        <v>-21.3509</v>
       </c>
     </row>
     <row r="3095">
@@ -69422,7 +69422,7 @@
       </c>
       <c r="I3095" t="inlineStr"/>
       <c r="J3095" t="n">
-        <v>-22.4326</v>
+        <v>-22.4505</v>
       </c>
     </row>
     <row r="3096">
@@ -69448,7 +69448,7 @@
       </c>
       <c r="I3096" t="inlineStr"/>
       <c r="J3096" t="n">
-        <v>-26.8973</v>
+        <v>-26.9112</v>
       </c>
     </row>
     <row r="3097">
@@ -69614,7 +69614,7 @@
       </c>
       <c r="I3105" t="inlineStr"/>
       <c r="J3105" t="n">
-        <v>-27.5965</v>
+        <v>-27.6048</v>
       </c>
     </row>
     <row r="3106">
@@ -69640,7 +69640,7 @@
       </c>
       <c r="I3106" t="inlineStr"/>
       <c r="J3106" t="n">
-        <v>-27.0718</v>
+        <v>-27.0824</v>
       </c>
     </row>
     <row r="3107">
@@ -69666,7 +69666,7 @@
       </c>
       <c r="I3107" t="inlineStr"/>
       <c r="J3107" t="n">
-        <v>-22.9954</v>
+        <v>-23.0061</v>
       </c>
     </row>
     <row r="3108">
@@ -69692,7 +69692,7 @@
       </c>
       <c r="I3108" t="inlineStr"/>
       <c r="J3108" t="n">
-        <v>-20.9483</v>
+        <v>-20.9586</v>
       </c>
     </row>
     <row r="3109">
@@ -69724,7 +69724,7 @@
         <v>-15.7</v>
       </c>
       <c r="J3109" t="n">
-        <v>-17.8836</v>
+        <v>-17.893</v>
       </c>
     </row>
     <row r="3110">
@@ -69750,7 +69750,7 @@
       </c>
       <c r="I3110" t="inlineStr"/>
       <c r="J3110" t="n">
-        <v>-19.5351</v>
+        <v>-19.5378</v>
       </c>
     </row>
     <row r="3111">
@@ -69776,7 +69776,7 @@
       </c>
       <c r="I3111" t="inlineStr"/>
       <c r="J3111" t="n">
-        <v>-19.9575</v>
+        <v>-19.9629</v>
       </c>
     </row>
     <row r="3112">
@@ -69802,7 +69802,7 @@
       </c>
       <c r="I3112" t="inlineStr"/>
       <c r="J3112" t="n">
-        <v>-20.3696</v>
+        <v>-20.3737</v>
       </c>
     </row>
     <row r="3113">
@@ -69828,7 +69828,7 @@
       </c>
       <c r="I3113" t="inlineStr"/>
       <c r="J3113" t="n">
-        <v>-20.6195</v>
+        <v>-20.6215</v>
       </c>
     </row>
     <row r="3114">
@@ -69860,7 +69860,7 @@
         <v>-6.6</v>
       </c>
       <c r="J3114" t="n">
-        <v>-19.4253</v>
+        <v>-19.4273</v>
       </c>
     </row>
     <row r="3115">
@@ -69886,7 +69886,7 @@
       </c>
       <c r="I3115" t="inlineStr"/>
       <c r="J3115" t="n">
-        <v>-19.9923</v>
+        <v>-19.9926</v>
       </c>
     </row>
     <row r="3116">
@@ -69912,7 +69912,7 @@
       </c>
       <c r="I3116" t="inlineStr"/>
       <c r="J3116" t="n">
-        <v>-20.0649</v>
+        <v>-20.0668</v>
       </c>
     </row>
     <row r="3117">
@@ -69938,7 +69938,7 @@
       </c>
       <c r="I3117" t="inlineStr"/>
       <c r="J3117" t="n">
-        <v>-17.2271</v>
+        <v>-17.2313</v>
       </c>
     </row>
     <row r="3118">
@@ -69964,7 +69964,7 @@
       </c>
       <c r="I3118" t="inlineStr"/>
       <c r="J3118" t="n">
-        <v>-16.7969</v>
+        <v>-16.8029</v>
       </c>
     </row>
     <row r="3119">
@@ -69996,7 +69996,7 @@
         <v>-3.7</v>
       </c>
       <c r="J3119" t="n">
-        <v>-13.7479</v>
+        <v>-13.7607</v>
       </c>
     </row>
     <row r="3120">
@@ -70048,7 +70048,7 @@
       </c>
       <c r="I3121" t="inlineStr"/>
       <c r="J3121" t="n">
-        <v>-2.9281</v>
+        <v>-2.9385</v>
       </c>
     </row>
     <row r="3122">
@@ -70074,7 +70074,7 @@
       </c>
       <c r="I3122" t="inlineStr"/>
       <c r="J3122" t="n">
-        <v>-0.4076</v>
+        <v>-0.435</v>
       </c>
     </row>
     <row r="3123">
@@ -70100,7 +70100,7 @@
       </c>
       <c r="I3123" t="inlineStr"/>
       <c r="J3123" t="n">
-        <v>-0.7812</v>
+        <v>-0.8091</v>
       </c>
     </row>
     <row r="3124">
@@ -70132,7 +70132,7 @@
         <v>-3.7</v>
       </c>
       <c r="J3124" t="n">
-        <v>-1.3572</v>
+        <v>-1.3851</v>
       </c>
     </row>
     <row r="3125">
@@ -70294,7 +70294,7 @@
       </c>
       <c r="I3130" t="inlineStr"/>
       <c r="J3130" t="n">
-        <v>9.2057</v>
+        <v>9.1892</v>
       </c>
     </row>
     <row r="3131">
@@ -70320,7 +70320,7 @@
       </c>
       <c r="I3131" t="inlineStr"/>
       <c r="J3131" t="n">
-        <v>3.3016</v>
+        <v>3.2757</v>
       </c>
     </row>
     <row r="3132">
@@ -70346,7 +70346,7 @@
       </c>
       <c r="I3132" t="inlineStr"/>
       <c r="J3132" t="n">
-        <v>8.8781</v>
+        <v>8.842599999999999</v>
       </c>
     </row>
     <row r="3133">
@@ -70372,7 +70372,7 @@
       </c>
       <c r="I3133" t="inlineStr"/>
       <c r="J3133" t="n">
-        <v>10.577</v>
+        <v>10.534</v>
       </c>
     </row>
     <row r="3134">
@@ -70404,7 +70404,7 @@
         <v>2.4</v>
       </c>
       <c r="J3134" t="n">
-        <v>16.5169</v>
+        <v>16.467</v>
       </c>
     </row>
     <row r="3135">
@@ -70430,7 +70430,7 @@
       </c>
       <c r="I3135" t="inlineStr"/>
       <c r="J3135" t="n">
-        <v>15.5337</v>
+        <v>15.5109</v>
       </c>
     </row>
     <row r="3136">
@@ -70456,7 +70456,7 @@
       </c>
       <c r="I3136" t="inlineStr"/>
       <c r="J3136" t="n">
-        <v>8.9269</v>
+        <v>8.890599999999999</v>
       </c>
     </row>
     <row r="3137">
@@ -70482,7 +70482,7 @@
       </c>
       <c r="I3137" t="inlineStr"/>
       <c r="J3137" t="n">
-        <v>8.607799999999999</v>
+        <v>8.571</v>
       </c>
     </row>
     <row r="3138">
@@ -70506,7 +70506,7 @@
       </c>
       <c r="I3138" t="inlineStr"/>
       <c r="J3138" t="n">
-        <v>10.5273</v>
+        <v>10.4893</v>
       </c>
     </row>
     <row r="3139">
@@ -70538,7 +70538,7 @@
         <v>-0.9</v>
       </c>
       <c r="J3139" t="n">
-        <v>10.6363</v>
+        <v>10.5899</v>
       </c>
     </row>
     <row r="3140">
@@ -70564,7 +70564,7 @@
       </c>
       <c r="I3140" t="inlineStr"/>
       <c r="J3140" t="n">
-        <v>5.1716</v>
+        <v>5.1491</v>
       </c>
     </row>
     <row r="3141">
@@ -70590,7 +70590,7 @@
       </c>
       <c r="I3141" t="inlineStr"/>
       <c r="J3141" t="n">
-        <v>14.296</v>
+        <v>14.2398</v>
       </c>
     </row>
     <row r="3142">
@@ -70616,7 +70616,7 @@
       </c>
       <c r="I3142" t="inlineStr"/>
       <c r="J3142" t="n">
-        <v>20.3531</v>
+        <v>20.2869</v>
       </c>
     </row>
     <row r="3143">
@@ -70642,7 +70642,7 @@
       </c>
       <c r="I3143" t="inlineStr"/>
       <c r="J3143" t="n">
-        <v>21.0158</v>
+        <v>21.0144</v>
       </c>
     </row>
     <row r="3144">
@@ -70674,7 +70674,7 @@
         <v>7.9</v>
       </c>
       <c r="J3144" t="n">
-        <v>18.4224</v>
+        <v>18.4872</v>
       </c>
     </row>
     <row r="3145">
@@ -70700,7 +70700,7 @@
       </c>
       <c r="I3145" t="inlineStr"/>
       <c r="J3145" t="n">
-        <v>20.6529</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="3146">
@@ -70726,7 +70726,7 @@
       </c>
       <c r="I3146" t="inlineStr"/>
       <c r="J3146" t="n">
-        <v>22.2707</v>
+        <v>22.3244</v>
       </c>
     </row>
     <row r="3147">
@@ -70752,7 +70752,7 @@
       </c>
       <c r="I3147" t="inlineStr"/>
       <c r="J3147" t="n">
-        <v>22.6023</v>
+        <v>22.6574</v>
       </c>
     </row>
     <row r="3148">
@@ -70778,7 +70778,7 @@
       </c>
       <c r="I3148" t="inlineStr"/>
       <c r="J3148" t="n">
-        <v>27.6045</v>
+        <v>27.6468</v>
       </c>
     </row>
     <row r="3149">
@@ -70810,7 +70810,7 @@
         <v>4.3</v>
       </c>
       <c r="J3149" t="n">
-        <v>32.5753</v>
+        <v>32.6089</v>
       </c>
     </row>
     <row r="3150">
@@ -70836,7 +70836,7 @@
       </c>
       <c r="I3150" t="inlineStr"/>
       <c r="J3150" t="n">
-        <v>27.2884</v>
+        <v>27.3059</v>
       </c>
     </row>
     <row r="3151">
@@ -70862,7 +70862,7 @@
       </c>
       <c r="I3151" t="inlineStr"/>
       <c r="J3151" t="n">
-        <v>25.3475</v>
+        <v>25.3829</v>
       </c>
     </row>
     <row r="3152">
@@ -70888,7 +70888,7 @@
       </c>
       <c r="I3152" t="inlineStr"/>
       <c r="J3152" t="n">
-        <v>29.9631</v>
+        <v>29.9885</v>
       </c>
     </row>
     <row r="3153">
@@ -70914,7 +70914,7 @@
       </c>
       <c r="I3153" t="inlineStr"/>
       <c r="J3153" t="n">
-        <v>35.6041</v>
+        <v>35.6198</v>
       </c>
     </row>
     <row r="3154">
@@ -70946,7 +70946,7 @@
         <v>-7.2</v>
       </c>
       <c r="J3154" t="n">
-        <v>28.6187</v>
+        <v>28.6415</v>
       </c>
     </row>
     <row r="3155">
@@ -70972,7 +70972,7 @@
       </c>
       <c r="I3155" t="inlineStr"/>
       <c r="J3155" t="n">
-        <v>17.9936</v>
+        <v>18.0097</v>
       </c>
     </row>
     <row r="3156">
@@ -70998,7 +70998,7 @@
       </c>
       <c r="I3156" t="inlineStr"/>
       <c r="J3156" t="n">
-        <v>12.8954</v>
+        <v>12.9358</v>
       </c>
     </row>
     <row r="3157">
@@ -71024,7 +71024,7 @@
       </c>
       <c r="I3157" t="inlineStr"/>
       <c r="J3157" t="n">
-        <v>15.4945</v>
+        <v>15.531</v>
       </c>
     </row>
     <row r="3158">
@@ -71050,7 +71050,7 @@
       </c>
       <c r="I3158" t="inlineStr"/>
       <c r="J3158" t="n">
-        <v>9.6295</v>
+        <v>9.6707</v>
       </c>
     </row>
     <row r="3159">
@@ -71082,7 +71082,7 @@
         <v>-0.8</v>
       </c>
       <c r="J3159" t="n">
-        <v>16.9523</v>
+        <v>16.9884</v>
       </c>
     </row>
     <row r="3160">
@@ -71104,7 +71104,7 @@
       </c>
       <c r="I3160" t="inlineStr"/>
       <c r="J3160" t="n">
-        <v>19.5664</v>
+        <v>19.5821</v>
       </c>
     </row>
     <row r="3161">
@@ -71130,7 +71130,7 @@
       </c>
       <c r="I3161" t="inlineStr"/>
       <c r="J3161" t="n">
-        <v>16.8803</v>
+        <v>16.9169</v>
       </c>
     </row>
     <row r="3162">
@@ -71156,7 +71156,7 @@
       </c>
       <c r="I3162" t="inlineStr"/>
       <c r="J3162" t="n">
-        <v>8.9869</v>
+        <v>9.0321</v>
       </c>
     </row>
     <row r="3163">
@@ -71182,7 +71182,7 @@
       </c>
       <c r="I3163" t="inlineStr"/>
       <c r="J3163" t="n">
-        <v>10.0117</v>
+        <v>10.0529</v>
       </c>
     </row>
     <row r="3164">
@@ -71214,7 +71214,7 @@
         <v>-8.6</v>
       </c>
       <c r="J3164" t="n">
-        <v>10.5583</v>
+        <v>10.5969</v>
       </c>
     </row>
     <row r="3165">
@@ -71240,7 +71240,7 @@
       </c>
       <c r="I3165" t="inlineStr"/>
       <c r="J3165" t="n">
-        <v>14.5634</v>
+        <v>14.5941</v>
       </c>
     </row>
     <row r="3166">
@@ -71266,7 +71266,7 @@
       </c>
       <c r="I3166" t="inlineStr"/>
       <c r="J3166" t="n">
-        <v>16.828</v>
+        <v>16.855</v>
       </c>
     </row>
     <row r="3167">
@@ -71292,7 +71292,7 @@
       </c>
       <c r="I3167" t="inlineStr"/>
       <c r="J3167" t="n">
-        <v>12.3055</v>
+        <v>12.3391</v>
       </c>
     </row>
     <row r="3168">
@@ -71324,7 +71324,7 @@
         <v>-5.2</v>
       </c>
       <c r="J3168" t="n">
-        <v>8.9335</v>
+        <v>8.971399999999999</v>
       </c>
     </row>
     <row r="3169">
@@ -71350,7 +71350,7 @@
       </c>
       <c r="I3169" t="inlineStr"/>
       <c r="J3169" t="n">
-        <v>-0.5672</v>
+        <v>-0.5454</v>
       </c>
     </row>
     <row r="3170">
@@ -71376,7 +71376,7 @@
       </c>
       <c r="I3170" t="inlineStr"/>
       <c r="J3170" t="n">
-        <v>5.8749</v>
+        <v>5.9108</v>
       </c>
     </row>
     <row r="3171">
@@ -71402,7 +71402,7 @@
       </c>
       <c r="I3171" t="inlineStr"/>
       <c r="J3171" t="n">
-        <v>1.4169</v>
+        <v>1.4615</v>
       </c>
     </row>
     <row r="3172">
@@ -71428,7 +71428,7 @@
       </c>
       <c r="I3172" t="inlineStr"/>
       <c r="J3172" t="n">
-        <v>-3.5161</v>
+        <v>-3.4633</v>
       </c>
     </row>
     <row r="3173">
@@ -71460,7 +71460,7 @@
         <v>3.8</v>
       </c>
       <c r="J3173" t="n">
-        <v>-0.4394</v>
+        <v>-0.3897</v>
       </c>
     </row>
     <row r="3174">
@@ -71484,7 +71484,7 @@
       </c>
       <c r="I3174" t="inlineStr"/>
       <c r="J3174" t="n">
-        <v>4.2131</v>
+        <v>4.2344</v>
       </c>
     </row>
     <row r="3175">
@@ -71510,7 +71510,7 @@
       </c>
       <c r="I3175" t="inlineStr"/>
       <c r="J3175" t="n">
-        <v>6.9134</v>
+        <v>6.9516</v>
       </c>
     </row>
     <row r="3176">
@@ -71536,7 +71536,7 @@
       </c>
       <c r="I3176" t="inlineStr"/>
       <c r="J3176" t="n">
-        <v>9.7042</v>
+        <v>9.741199999999999</v>
       </c>
     </row>
     <row r="3177">
@@ -71562,7 +71562,7 @@
       </c>
       <c r="I3177" t="inlineStr"/>
       <c r="J3177" t="n">
-        <v>15.4275</v>
+        <v>15.4556</v>
       </c>
     </row>
     <row r="3178">
@@ -71594,7 +71594,7 @@
         <v>-5.1</v>
       </c>
       <c r="J3178" t="n">
-        <v>6.6391</v>
+        <v>6.6708</v>
       </c>
     </row>
     <row r="3179">
@@ -71620,7 +71620,7 @@
       </c>
       <c r="I3179" t="inlineStr"/>
       <c r="J3179" t="n">
-        <v>1.2441</v>
+        <v>1.2634</v>
       </c>
     </row>
     <row r="3180">
@@ -71646,7 +71646,7 @@
       </c>
       <c r="I3180" t="inlineStr"/>
       <c r="J3180" t="n">
-        <v>1.1618</v>
+        <v>1.2023</v>
       </c>
     </row>
     <row r="3181">
@@ -71672,7 +71672,7 @@
       </c>
       <c r="I3181" t="inlineStr"/>
       <c r="J3181" t="n">
-        <v>1.2947</v>
+        <v>1.3353</v>
       </c>
     </row>
     <row r="3182">
@@ -71698,7 +71698,7 @@
       </c>
       <c r="I3182" t="inlineStr"/>
       <c r="J3182" t="n">
-        <v>6.0593</v>
+        <v>6.0952</v>
       </c>
     </row>
     <row r="3183">
@@ -71730,7 +71730,7 @@
         <v>-2.1</v>
       </c>
       <c r="J3183" t="n">
-        <v>1.0321</v>
+        <v>1.0756</v>
       </c>
     </row>
     <row r="3184">
@@ -71756,7 +71756,7 @@
       </c>
       <c r="I3184" t="inlineStr"/>
       <c r="J3184" t="n">
-        <v>-5.6953</v>
+        <v>-5.671</v>
       </c>
     </row>
     <row r="3185">
@@ -71782,7 +71782,7 @@
       </c>
       <c r="I3185" t="inlineStr"/>
       <c r="J3185" t="n">
-        <v>-4.9312</v>
+        <v>-4.8841</v>
       </c>
     </row>
     <row r="3186">
@@ -71808,7 +71808,7 @@
       </c>
       <c r="I3186" t="inlineStr"/>
       <c r="J3186" t="n">
-        <v>-8.4505</v>
+        <v>-8.398</v>
       </c>
     </row>
     <row r="3187">
@@ -71834,7 +71834,7 @@
       </c>
       <c r="I3187" t="inlineStr"/>
       <c r="J3187" t="n">
-        <v>-8.6379</v>
+        <v>-8.5853</v>
       </c>
     </row>
     <row r="3188">
@@ -71866,7 +71866,7 @@
         <v>1.6</v>
       </c>
       <c r="J3188" t="n">
-        <v>-7.4386</v>
+        <v>-7.3884</v>
       </c>
     </row>
     <row r="3189">
@@ -71960,7 +71960,7 @@
       </c>
       <c r="I3192" t="inlineStr"/>
       <c r="J3192" t="n">
-        <v>-13.3073</v>
+        <v>-13.284</v>
       </c>
     </row>
     <row r="3193">
@@ -71986,7 +71986,7 @@
       </c>
       <c r="I3193" t="inlineStr"/>
       <c r="J3193" t="n">
-        <v>-15.4677</v>
+        <v>-15.417</v>
       </c>
     </row>
     <row r="3194">
@@ -72130,7 +72130,7 @@
       </c>
       <c r="I3201" t="inlineStr"/>
       <c r="J3201" t="n">
-        <v>-12.9857</v>
+        <v>-12.9527</v>
       </c>
     </row>
     <row r="3202">
@@ -72156,7 +72156,7 @@
       </c>
       <c r="I3202" t="inlineStr"/>
       <c r="J3202" t="n">
-        <v>-19.0808</v>
+        <v>-19.0054</v>
       </c>
     </row>
     <row r="3203">
@@ -72182,7 +72182,7 @@
       </c>
       <c r="I3203" t="inlineStr"/>
       <c r="J3203" t="n">
-        <v>-22.7647</v>
+        <v>-22.6833</v>
       </c>
     </row>
     <row r="3204">
@@ -72208,7 +72208,7 @@
       </c>
       <c r="I3204" t="inlineStr"/>
       <c r="J3204" t="n">
-        <v>-26.562</v>
+        <v>-26.4803</v>
       </c>
     </row>
     <row r="3205">
@@ -72240,7 +72240,7 @@
         <v>24.4</v>
       </c>
       <c r="J3205" t="n">
-        <v>-29.9161</v>
+        <v>-29.8323</v>
       </c>
     </row>
     <row r="3206">
@@ -72266,7 +72266,7 @@
       </c>
       <c r="I3206" t="inlineStr"/>
       <c r="J3206" t="n">
-        <v>-25.5075</v>
+        <v>-25.531</v>
       </c>
     </row>
     <row r="3207">
@@ -72292,7 +72292,7 @@
       </c>
       <c r="I3207" t="inlineStr"/>
       <c r="J3207" t="n">
-        <v>-21.9577</v>
+        <v>-21.8769</v>
       </c>
     </row>
     <row r="3208">
@@ -72318,7 +72318,7 @@
       </c>
       <c r="I3208" t="inlineStr"/>
       <c r="J3208" t="n">
-        <v>-20.8302</v>
+        <v>-20.8762</v>
       </c>
     </row>
     <row r="3209">
@@ -72374,7 +72374,7 @@
         <v>28.9</v>
       </c>
       <c r="J3210" t="n">
-        <v>-21.959</v>
+        <v>-22.0025</v>
       </c>
     </row>
     <row r="3211">
@@ -72400,7 +72400,7 @@
       </c>
       <c r="I3211" t="inlineStr"/>
       <c r="J3211" t="n">
-        <v>-27.013</v>
+        <v>-27.0314</v>
       </c>
     </row>
     <row r="3212">
@@ -72426,7 +72426,7 @@
       </c>
       <c r="I3212" t="inlineStr"/>
       <c r="J3212" t="n">
-        <v>-28.8667</v>
+        <v>-28.9016</v>
       </c>
     </row>
     <row r="3213">
@@ -72452,7 +72452,7 @@
       </c>
       <c r="I3213" t="inlineStr"/>
       <c r="J3213" t="n">
-        <v>-28.1138</v>
+        <v>-28.1507</v>
       </c>
     </row>
     <row r="3214">
@@ -72478,7 +72478,7 @@
       </c>
       <c r="I3214" t="inlineStr"/>
       <c r="J3214" t="n">
-        <v>-29.0559</v>
+        <v>-29.0889</v>
       </c>
     </row>
     <row r="3215">
@@ -72510,7 +72510,7 @@
         <v>26.6</v>
       </c>
       <c r="J3215" t="n">
-        <v>-28.7428</v>
+        <v>-28.7751</v>
       </c>
     </row>
     <row r="3216">
@@ -72672,7 +72672,7 @@
       </c>
       <c r="I3221" t="inlineStr"/>
       <c r="J3221" t="n">
-        <v>-18.3895</v>
+        <v>-18.4015</v>
       </c>
     </row>
     <row r="3222">
@@ -72698,7 +72698,7 @@
       </c>
       <c r="I3222" t="inlineStr"/>
       <c r="J3222" t="n">
-        <v>-14.1383</v>
+        <v>-14.1643</v>
       </c>
     </row>
     <row r="3223">
@@ -72724,7 +72724,7 @@
       </c>
       <c r="I3223" t="inlineStr"/>
       <c r="J3223" t="n">
-        <v>-14.852</v>
+        <v>-14.8756</v>
       </c>
     </row>
     <row r="3224">
@@ -72750,7 +72750,7 @@
       </c>
       <c r="I3224" t="inlineStr"/>
       <c r="J3224" t="n">
-        <v>-10.8794</v>
+        <v>-10.9072</v>
       </c>
     </row>
     <row r="3225">
@@ -72782,7 +72782,7 @@
         <v>6</v>
       </c>
       <c r="J3225" t="n">
-        <v>-6.3372</v>
+        <v>-6.3697</v>
       </c>
     </row>
     <row r="3226">
@@ -72808,7 +72808,7 @@
       </c>
       <c r="I3226" t="inlineStr"/>
       <c r="J3226" t="n">
-        <v>-6.6387</v>
+        <v>-6.6546</v>
       </c>
     </row>
     <row r="3227">
@@ -72834,7 +72834,7 @@
       </c>
       <c r="I3227" t="inlineStr"/>
       <c r="J3227" t="n">
-        <v>-8.9924</v>
+        <v>-9.0223</v>
       </c>
     </row>
     <row r="3228">
@@ -72860,7 +72860,7 @@
       </c>
       <c r="I3228" t="inlineStr"/>
       <c r="J3228" t="n">
-        <v>-10.2718</v>
+        <v>-10.2999</v>
       </c>
     </row>
     <row r="3229">
@@ -72886,7 +72886,7 @@
       </c>
       <c r="I3229" t="inlineStr"/>
       <c r="J3229" t="n">
-        <v>-11.9426</v>
+        <v>-11.9687</v>
       </c>
     </row>
     <row r="3230">
@@ -72914,7 +72914,7 @@
         <v>-0.8</v>
       </c>
       <c r="J3230" t="n">
-        <v>-15.5091</v>
+        <v>-15.5317</v>
       </c>
     </row>
     <row r="3231">
@@ -72940,7 +72940,7 @@
       </c>
       <c r="I3231" t="inlineStr"/>
       <c r="J3231" t="n">
-        <v>-11.8383</v>
+        <v>-11.8559</v>
       </c>
     </row>
     <row r="3232">
@@ -72966,7 +72966,7 @@
       </c>
       <c r="I3232" t="inlineStr"/>
       <c r="J3232" t="n">
-        <v>-14.9888</v>
+        <v>-15.0208</v>
       </c>
     </row>
     <row r="3233">
@@ -72992,7 +72992,7 @@
       </c>
       <c r="I3233" t="inlineStr"/>
       <c r="J3233" t="n">
-        <v>-15.2819</v>
+        <v>-15.3135</v>
       </c>
     </row>
     <row r="3234">
@@ -73072,7 +73072,7 @@
       </c>
       <c r="I3237" t="inlineStr"/>
       <c r="J3237" t="n">
-        <v>-10.2784</v>
+        <v>-10.302</v>
       </c>
     </row>
     <row r="3238">
@@ -73098,7 +73098,7 @@
       </c>
       <c r="I3238" t="inlineStr"/>
       <c r="J3238" t="n">
-        <v>-10.9193</v>
+        <v>-10.9537</v>
       </c>
     </row>
     <row r="3239">
@@ -73124,7 +73124,7 @@
       </c>
       <c r="I3239" t="inlineStr"/>
       <c r="J3239" t="n">
-        <v>-9.013</v>
+        <v>-9.047000000000001</v>
       </c>
     </row>
     <row r="3240">
@@ -73150,7 +73150,7 @@
       </c>
       <c r="I3240" t="inlineStr"/>
       <c r="J3240" t="n">
-        <v>-9.6328</v>
+        <v>-9.669600000000001</v>
       </c>
     </row>
     <row r="3241">
@@ -73182,7 +73182,7 @@
         <v>-3.2</v>
       </c>
       <c r="J3241" t="n">
-        <v>-13.9746</v>
+        <v>-14.0054</v>
       </c>
     </row>
     <row r="3242">
@@ -73208,7 +73208,7 @@
       </c>
       <c r="I3242" t="inlineStr"/>
       <c r="J3242" t="n">
-        <v>-16.0674</v>
+        <v>-16.085</v>
       </c>
     </row>
     <row r="3243">
@@ -73234,7 +73234,7 @@
       </c>
       <c r="I3243" t="inlineStr"/>
       <c r="J3243" t="n">
-        <v>-18.5264</v>
+        <v>-18.5566</v>
       </c>
     </row>
     <row r="3244">
@@ -73260,7 +73260,7 @@
       </c>
       <c r="I3244" t="inlineStr"/>
       <c r="J3244" t="n">
-        <v>-24.1144</v>
+        <v>-24.1375</v>
       </c>
     </row>
     <row r="3245">
@@ -73286,7 +73286,7 @@
       </c>
       <c r="I3245" t="inlineStr"/>
       <c r="J3245" t="n">
-        <v>-21.5397</v>
+        <v>-21.5696</v>
       </c>
     </row>
     <row r="3246">
@@ -73318,7 +73318,7 @@
         <v>-5.5</v>
       </c>
       <c r="J3246" t="n">
-        <v>-22.2765</v>
+        <v>-22.3073</v>
       </c>
     </row>
     <row r="3247">
@@ -73344,7 +73344,7 @@
       </c>
       <c r="I3247" t="inlineStr"/>
       <c r="J3247" t="n">
-        <v>-14.3821</v>
+        <v>-14.4026</v>
       </c>
     </row>
     <row r="3248">
@@ -73370,7 +73370,7 @@
       </c>
       <c r="I3248" t="inlineStr"/>
       <c r="J3248" t="n">
-        <v>-13.0266</v>
+        <v>-13.0653</v>
       </c>
     </row>
     <row r="3249">
@@ -73396,7 +73396,7 @@
       </c>
       <c r="I3249" t="inlineStr"/>
       <c r="J3249" t="n">
-        <v>-14.8998</v>
+        <v>-14.9364</v>
       </c>
     </row>
     <row r="3250">
@@ -73422,7 +73422,7 @@
       </c>
       <c r="I3250" t="inlineStr"/>
       <c r="J3250" t="n">
-        <v>-15.8938</v>
+        <v>-15.9329</v>
       </c>
     </row>
     <row r="3251">
@@ -73454,7 +73454,7 @@
         <v>-0.5</v>
       </c>
       <c r="J3251" t="n">
-        <v>-20.3571</v>
+        <v>-20.3996</v>
       </c>
     </row>
     <row r="3252">
@@ -73496,7 +73496,7 @@
       </c>
       <c r="I3253" t="inlineStr"/>
       <c r="J3253" t="n">
-        <v>-29.0879</v>
+        <v>-29.1085</v>
       </c>
     </row>
     <row r="3254">
@@ -73522,7 +73522,7 @@
       </c>
       <c r="I3254" t="inlineStr"/>
       <c r="J3254" t="n">
-        <v>-30.361</v>
+        <v>-30.3984</v>
       </c>
     </row>
     <row r="3255">
@@ -73600,7 +73600,7 @@
       </c>
       <c r="I3258" t="inlineStr"/>
       <c r="J3258" t="n">
-        <v>-28.9912</v>
+        <v>-29.0141</v>
       </c>
     </row>
     <row r="3259">
@@ -73626,7 +73626,7 @@
       </c>
       <c r="I3259" t="inlineStr"/>
       <c r="J3259" t="n">
-        <v>-28.4612</v>
+        <v>-28.5025</v>
       </c>
     </row>
     <row r="3260">
@@ -73652,7 +73652,7 @@
       </c>
       <c r="I3260" t="inlineStr"/>
       <c r="J3260" t="n">
-        <v>-27.652</v>
+        <v>-27.6935</v>
       </c>
     </row>
     <row r="3261">
@@ -73678,7 +73678,7 @@
       </c>
       <c r="I3261" t="inlineStr"/>
       <c r="J3261" t="n">
-        <v>-27.1263</v>
+        <v>-27.17</v>
       </c>
     </row>
     <row r="3262">
@@ -73710,7 +73710,7 @@
         <v>8</v>
       </c>
       <c r="J3262" t="n">
-        <v>-28.2663</v>
+        <v>-28.2901</v>
       </c>
     </row>
     <row r="3263">
@@ -73752,7 +73752,7 @@
       </c>
       <c r="I3264" t="inlineStr"/>
       <c r="J3264" t="n">
-        <v>-27.9719</v>
+        <v>-27.9915</v>
       </c>
     </row>
     <row r="3265">
@@ -73778,7 +73778,7 @@
       </c>
       <c r="I3265" t="inlineStr"/>
       <c r="J3265" t="n">
-        <v>-29.2994</v>
+        <v>-29.3363</v>
       </c>
     </row>
     <row r="3266">
@@ -73804,7 +73804,7 @@
       </c>
       <c r="I3266" t="inlineStr"/>
       <c r="J3266" t="n">
-        <v>-29.1941</v>
+        <v>-29.2336</v>
       </c>
     </row>
     <row r="3267">
@@ -73830,7 +73830,7 @@
       </c>
       <c r="I3267" t="inlineStr"/>
       <c r="J3267" t="n">
-        <v>-28.5138</v>
+        <v>-28.5573</v>
       </c>
     </row>
     <row r="3268">
@@ -73862,7 +73862,7 @@
         <v>10.9</v>
       </c>
       <c r="J3268" t="n">
-        <v>-33.2425</v>
+        <v>-33.2811</v>
       </c>
     </row>
     <row r="3269">
@@ -73888,7 +73888,7 @@
       </c>
       <c r="I3269" t="inlineStr"/>
       <c r="J3269" t="n">
-        <v>-38.5314</v>
+        <v>-38.5515</v>
       </c>
     </row>
     <row r="3270">
@@ -73914,7 +73914,7 @@
       </c>
       <c r="I3270" t="inlineStr"/>
       <c r="J3270" t="n">
-        <v>-37.5609</v>
+        <v>-37.6028</v>
       </c>
     </row>
     <row r="3271">
@@ -73940,7 +73940,7 @@
       </c>
       <c r="I3271" t="inlineStr"/>
       <c r="J3271" t="n">
-        <v>-36.4709</v>
+        <v>-36.5135</v>
       </c>
     </row>
     <row r="3272">
@@ -73966,7 +73966,7 @@
       </c>
       <c r="I3272" t="inlineStr"/>
       <c r="J3272" t="n">
-        <v>-35.4219</v>
+        <v>-35.4685</v>
       </c>
     </row>
     <row r="3273">
@@ -73998,7 +73998,7 @@
         <v>10.4</v>
       </c>
       <c r="J3273" t="n">
-        <v>-36.493</v>
+        <v>-36.5412</v>
       </c>
     </row>
     <row r="3274">
@@ -74022,7 +74022,7 @@
       </c>
       <c r="I3274" t="inlineStr"/>
       <c r="J3274" t="n">
-        <v>-34.7818</v>
+        <v>-34.8106</v>
       </c>
     </row>
     <row r="3275">
@@ -74048,7 +74048,7 @@
       </c>
       <c r="I3275" t="inlineStr"/>
       <c r="J3275" t="n">
-        <v>-37.6066</v>
+        <v>-37.6511</v>
       </c>
     </row>
     <row r="3276">
@@ -74074,7 +74074,7 @@
       </c>
       <c r="I3276" t="inlineStr"/>
       <c r="J3276" t="n">
-        <v>-43.4683</v>
+        <v>-43.5048</v>
       </c>
     </row>
     <row r="3277">
@@ -74100,7 +74100,7 @@
       </c>
       <c r="I3277" t="inlineStr"/>
       <c r="J3277" t="n">
-        <v>-41.9365</v>
+        <v>-41.9797</v>
       </c>
     </row>
     <row r="3278">
@@ -74132,7 +74132,7 @@
         <v>11.6</v>
       </c>
       <c r="J3278" t="n">
-        <v>-38.5392</v>
+        <v>-38.5876</v>
       </c>
     </row>
     <row r="3279">
@@ -74158,7 +74158,7 @@
       </c>
       <c r="I3279" t="inlineStr"/>
       <c r="J3279" t="n">
-        <v>-44.8663</v>
+        <v>-44.8892</v>
       </c>
     </row>
     <row r="3280">
@@ -74184,7 +74184,7 @@
       </c>
       <c r="I3280" t="inlineStr"/>
       <c r="J3280" t="n">
-        <v>-42.9618</v>
+        <v>-43.0051</v>
       </c>
     </row>
     <row r="3281">
@@ -74210,7 +74210,7 @@
       </c>
       <c r="I3281" t="inlineStr"/>
       <c r="J3281" t="n">
-        <v>-42.7746</v>
+        <v>-42.7952</v>
       </c>
     </row>
     <row r="3282">
@@ -74268,7 +74268,7 @@
         <v>5.3</v>
       </c>
       <c r="J3283" t="n">
-        <v>-47.2329</v>
+        <v>-47.2353</v>
       </c>
     </row>
     <row r="3284">
@@ -74310,7 +74310,7 @@
       </c>
       <c r="I3285" t="inlineStr"/>
       <c r="J3285" t="n">
-        <v>-42.6476</v>
+        <v>-42.6821</v>
       </c>
     </row>
     <row r="3286">
@@ -74336,7 +74336,7 @@
       </c>
       <c r="I3286" t="inlineStr"/>
       <c r="J3286" t="n">
-        <v>-46.1808</v>
+        <v>-46.208</v>
       </c>
     </row>
     <row r="3287">
@@ -74362,7 +74362,7 @@
       </c>
       <c r="I3287" t="inlineStr"/>
       <c r="J3287" t="n">
-        <v>-48.054</v>
+        <v>-48.0842</v>
       </c>
     </row>
     <row r="3288">
@@ -74394,7 +74394,7 @@
         <v>3.8</v>
       </c>
       <c r="J3288" t="n">
-        <v>-49.8202</v>
+        <v>-49.8488</v>
       </c>
     </row>
     <row r="3289">
@@ -74420,7 +74420,7 @@
       </c>
       <c r="I3289" t="inlineStr"/>
       <c r="J3289" t="n">
-        <v>-52.8437</v>
+        <v>-52.86</v>
       </c>
     </row>
     <row r="3290">
@@ -74446,7 +74446,7 @@
       </c>
       <c r="I3290" t="inlineStr"/>
       <c r="J3290" t="n">
-        <v>-51.7167</v>
+        <v>-51.7444</v>
       </c>
     </row>
     <row r="3291">
@@ -74470,7 +74470,7 @@
       </c>
       <c r="I3291" t="inlineStr"/>
       <c r="J3291" t="n">
-        <v>-52.0706</v>
+        <v>-52.0958</v>
       </c>
     </row>
     <row r="3292">
@@ -74496,7 +74496,7 @@
       </c>
       <c r="I3292" t="inlineStr"/>
       <c r="J3292" t="n">
-        <v>-51.2138</v>
+        <v>-51.2429</v>
       </c>
     </row>
     <row r="3293">
@@ -74528,7 +74528,7 @@
         <v>1.7</v>
       </c>
       <c r="J3293" t="n">
-        <v>-49.8039</v>
+        <v>-49.8341</v>
       </c>
     </row>
     <row r="3294">
@@ -74554,7 +74554,7 @@
       </c>
       <c r="I3294" t="inlineStr"/>
       <c r="J3294" t="n">
-        <v>-51.697</v>
+        <v>-51.7138</v>
       </c>
     </row>
     <row r="3295">
@@ -74580,7 +74580,7 @@
       </c>
       <c r="I3295" t="inlineStr"/>
       <c r="J3295" t="n">
-        <v>-53.7443</v>
+        <v>-53.7685</v>
       </c>
     </row>
     <row r="3296">
@@ -74606,7 +74606,7 @@
       </c>
       <c r="I3296" t="inlineStr"/>
       <c r="J3296" t="n">
-        <v>-51.8726</v>
+        <v>-51.8993</v>
       </c>
     </row>
     <row r="3297">
@@ -74632,7 +74632,7 @@
       </c>
       <c r="I3297" t="inlineStr"/>
       <c r="J3297" t="n">
-        <v>-48.7695</v>
+        <v>-48.8077</v>
       </c>
     </row>
     <row r="3298">
@@ -74664,7 +74664,7 @@
         <v>1</v>
       </c>
       <c r="J3298" t="n">
-        <v>-50.6559</v>
+        <v>-50.6919</v>
       </c>
     </row>
     <row r="3299">
@@ -74690,7 +74690,7 @@
       </c>
       <c r="I3299" t="inlineStr"/>
       <c r="J3299" t="n">
-        <v>-48.9914</v>
+        <v>-49.0182</v>
       </c>
     </row>
     <row r="3300">
@@ -74716,7 +74716,7 @@
       </c>
       <c r="I3300" t="inlineStr"/>
       <c r="J3300" t="n">
-        <v>-48.8458</v>
+        <v>-48.8839</v>
       </c>
     </row>
     <row r="3301">
@@ -74742,7 +74742,7 @@
       </c>
       <c r="I3301" t="inlineStr"/>
       <c r="J3301" t="n">
-        <v>-50.1329</v>
+        <v>-50.1665</v>
       </c>
     </row>
     <row r="3302">
@@ -74766,7 +74766,7 @@
       </c>
       <c r="I3302" t="inlineStr"/>
       <c r="J3302" t="n">
-        <v>-49.0516</v>
+        <v>-49.0961</v>
       </c>
     </row>
     <row r="3303">
@@ -74798,7 +74798,7 @@
         <v>-6.5</v>
       </c>
       <c r="J3303" t="n">
-        <v>-48.3971</v>
+        <v>-48.4405</v>
       </c>
     </row>
     <row r="3304">
@@ -74824,7 +74824,7 @@
       </c>
       <c r="I3304" t="inlineStr"/>
       <c r="J3304" t="n">
-        <v>-45.0002</v>
+        <v>-45.025</v>
       </c>
     </row>
     <row r="3305">
@@ -74850,7 +74850,7 @@
       </c>
       <c r="I3305" t="inlineStr"/>
       <c r="J3305" t="n">
-        <v>-42.8314</v>
+        <v>-42.8664</v>
       </c>
     </row>
     <row r="3306">
@@ -74876,7 +74876,7 @@
       </c>
       <c r="I3306" t="inlineStr"/>
       <c r="J3306" t="n">
-        <v>-38.7421</v>
+        <v>-38.7788</v>
       </c>
     </row>
     <row r="3307">
@@ -74902,7 +74902,7 @@
       </c>
       <c r="I3307" t="inlineStr"/>
       <c r="J3307" t="n">
-        <v>-39.447</v>
+        <v>-39.4874</v>
       </c>
     </row>
     <row r="3308">
@@ -74934,7 +74934,7 @@
         <v>-9.4</v>
       </c>
       <c r="J3308" t="n">
-        <v>-38.4874</v>
+        <v>-38.5146</v>
       </c>
     </row>
     <row r="3309">
@@ -74960,7 +74960,7 @@
       </c>
       <c r="I3309" t="inlineStr"/>
       <c r="J3309" t="n">
-        <v>-34.3761</v>
+        <v>-34.3994</v>
       </c>
     </row>
     <row r="3310">
@@ -74986,7 +74986,7 @@
       </c>
       <c r="I3310" t="inlineStr"/>
       <c r="J3310" t="n">
-        <v>-33.0556</v>
+        <v>-33.0904</v>
       </c>
     </row>
     <row r="3311">
@@ -75012,7 +75012,7 @@
       </c>
       <c r="I3311" t="inlineStr"/>
       <c r="J3311" t="n">
-        <v>-30.579</v>
+        <v>-30.6155</v>
       </c>
     </row>
     <row r="3312">
@@ -75038,7 +75038,7 @@
       </c>
       <c r="I3312" t="inlineStr"/>
       <c r="J3312" t="n">
-        <v>-31.0095</v>
+        <v>-31.0526</v>
       </c>
     </row>
     <row r="3313">
@@ -75070,7 +75070,7 @@
         <v>-9.5</v>
       </c>
       <c r="J3313" t="n">
-        <v>-32.9043</v>
+        <v>-32.9489</v>
       </c>
     </row>
     <row r="3314">
@@ -75096,7 +75096,7 @@
       </c>
       <c r="I3314" t="inlineStr"/>
       <c r="J3314" t="n">
-        <v>-33.1344</v>
+        <v>-33.1572</v>
       </c>
     </row>
     <row r="3315">
@@ -75122,7 +75122,7 @@
       </c>
       <c r="I3315" t="inlineStr"/>
       <c r="J3315" t="n">
-        <v>-29.3347</v>
+        <v>-29.3724</v>
       </c>
     </row>
     <row r="3316">
@@ -75148,7 +75148,7 @@
       </c>
       <c r="I3316" t="inlineStr"/>
       <c r="J3316" t="n">
-        <v>-26.4421</v>
+        <v>-26.4795</v>
       </c>
     </row>
     <row r="3317">
@@ -75174,7 +75174,7 @@
       </c>
       <c r="I3317" t="inlineStr"/>
       <c r="J3317" t="n">
-        <v>-25.9532</v>
+        <v>-25.9988</v>
       </c>
     </row>
     <row r="3318">
@@ -75206,7 +75206,7 @@
         <v>-8.4</v>
       </c>
       <c r="J3318" t="n">
-        <v>-27.7689</v>
+        <v>-27.8234</v>
       </c>
     </row>
     <row r="3319">
@@ -75232,7 +75232,7 @@
       </c>
       <c r="I3319" t="inlineStr"/>
       <c r="J3319" t="n">
-        <v>-33.7298</v>
+        <v>-33.7628</v>
       </c>
     </row>
     <row r="3320">
@@ -75258,7 +75258,7 @@
       </c>
       <c r="I3320" t="inlineStr"/>
       <c r="J3320" t="n">
-        <v>-34.0989</v>
+        <v>-34.149</v>
       </c>
     </row>
     <row r="3321">
@@ -75284,7 +75284,7 @@
       </c>
       <c r="I3321" t="inlineStr"/>
       <c r="J3321" t="n">
-        <v>-31.5238</v>
+        <v>-31.5739</v>
       </c>
     </row>
     <row r="3322">
@@ -75310,7 +75310,7 @@
       </c>
       <c r="I3322" t="inlineStr"/>
       <c r="J3322" t="n">
-        <v>-28.5127</v>
+        <v>-28.5761</v>
       </c>
     </row>
     <row r="3323">
@@ -75342,7 +75342,7 @@
         <v>-3.3</v>
       </c>
       <c r="J3323" t="n">
-        <v>-24.5015</v>
+        <v>-24.5713</v>
       </c>
     </row>
     <row r="3324">
@@ -75368,7 +75368,7 @@
       </c>
       <c r="I3324" t="inlineStr"/>
       <c r="J3324" t="n">
-        <v>-19.1151</v>
+        <v>-19.164</v>
       </c>
     </row>
     <row r="3325">
@@ -75394,7 +75394,7 @@
       </c>
       <c r="I3325" t="inlineStr"/>
       <c r="J3325" t="n">
-        <v>-22.8441</v>
+        <v>-22.9147</v>
       </c>
     </row>
     <row r="3326">
@@ -75420,7 +75420,7 @@
       </c>
       <c r="I3326" t="inlineStr"/>
       <c r="J3326" t="n">
-        <v>-23.1043</v>
+        <v>-23.1698</v>
       </c>
     </row>
     <row r="3327">
@@ -75446,7 +75446,7 @@
       </c>
       <c r="I3327" t="inlineStr"/>
       <c r="J3327" t="n">
-        <v>-26.5555</v>
+        <v>-26.5946</v>
       </c>
     </row>
     <row r="3328">
@@ -75478,7 +75478,7 @@
         <v>0.4</v>
       </c>
       <c r="J3328" t="n">
-        <v>-29.0227</v>
+        <v>-29.0574</v>
       </c>
     </row>
     <row r="3329">
@@ -75504,7 +75504,7 @@
       </c>
       <c r="I3329" t="inlineStr"/>
       <c r="J3329" t="n">
-        <v>-25.7154</v>
+        <v>-25.7333</v>
       </c>
     </row>
     <row r="3330">
@@ -75530,7 +75530,7 @@
       </c>
       <c r="I3330" t="inlineStr"/>
       <c r="J3330" t="n">
-        <v>-24.5496</v>
+        <v>-24.5898</v>
       </c>
     </row>
     <row r="3331">
@@ -75556,7 +75556,7 @@
       </c>
       <c r="I3331" t="inlineStr"/>
       <c r="J3331" t="n">
-        <v>-23.1367</v>
+        <v>-23.1788</v>
       </c>
     </row>
     <row r="3332">
@@ -75582,7 +75582,7 @@
       </c>
       <c r="I3332" t="inlineStr"/>
       <c r="J3332" t="n">
-        <v>-24.777</v>
+        <v>-24.815</v>
       </c>
     </row>
     <row r="3333">
@@ -75614,7 +75614,7 @@
         <v>-1</v>
       </c>
       <c r="J3333" t="n">
-        <v>-23.7223</v>
+        <v>-23.76</v>
       </c>
     </row>
     <row r="3334">
@@ -75640,7 +75640,7 @@
       </c>
       <c r="I3334" t="inlineStr"/>
       <c r="J3334" t="n">
-        <v>-14.9198</v>
+        <v>-14.9362</v>
       </c>
     </row>
     <row r="3335">
@@ -75666,7 +75666,7 @@
       </c>
       <c r="I3335" t="inlineStr"/>
       <c r="J3335" t="n">
-        <v>-11.2332</v>
+        <v>-11.276</v>
       </c>
     </row>
     <row r="3336">
@@ -75692,7 +75692,7 @@
       </c>
       <c r="I3336" t="inlineStr"/>
       <c r="J3336" t="n">
-        <v>-15.0936</v>
+        <v>-15.1306</v>
       </c>
     </row>
     <row r="3337">
@@ -75718,7 +75718,7 @@
       </c>
       <c r="I3337" t="inlineStr"/>
       <c r="J3337" t="n">
-        <v>-15.8835</v>
+        <v>-15.9117</v>
       </c>
     </row>
     <row r="3338">
@@ -75750,7 +75750,7 @@
         <v>-3.6</v>
       </c>
       <c r="J3338" t="n">
-        <v>-24.6799</v>
+        <v>-24.6945</v>
       </c>
     </row>
     <row r="3339">
@@ -75776,7 +75776,7 @@
       </c>
       <c r="I3339" t="inlineStr"/>
       <c r="J3339" t="n">
-        <v>-19.6154</v>
+        <v>-19.6174</v>
       </c>
     </row>
     <row r="3340">
@@ -75802,7 +75802,7 @@
       </c>
       <c r="I3340" t="inlineStr"/>
       <c r="J3340" t="n">
-        <v>-18.8094</v>
+        <v>-18.8269</v>
       </c>
     </row>
     <row r="3341">
@@ -75828,7 +75828,7 @@
       </c>
       <c r="I3341" t="inlineStr"/>
       <c r="J3341" t="n">
-        <v>-18.6698</v>
+        <v>-18.6884</v>
       </c>
     </row>
     <row r="3342">
@@ -75854,7 +75854,7 @@
       </c>
       <c r="I3342" t="inlineStr"/>
       <c r="J3342" t="n">
-        <v>-17.4159</v>
+        <v>-17.4332</v>
       </c>
     </row>
     <row r="3343">
@@ -75886,7 +75886,7 @@
         <v>-7.7</v>
       </c>
       <c r="J3343" t="n">
-        <v>-13.343</v>
+        <v>-13.3668</v>
       </c>
     </row>
     <row r="3344">
@@ -75910,7 +75910,7 @@
       </c>
       <c r="I3344" t="inlineStr"/>
       <c r="J3344" t="n">
-        <v>-11.6018</v>
+        <v>-11.6144</v>
       </c>
     </row>
     <row r="3345">
@@ -75936,7 +75936,7 @@
       </c>
       <c r="I3345" t="inlineStr"/>
       <c r="J3345" t="n">
-        <v>-16.7289</v>
+        <v>-16.7504</v>
       </c>
     </row>
     <row r="3346">
@@ -75962,7 +75962,7 @@
       </c>
       <c r="I3346" t="inlineStr"/>
       <c r="J3346" t="n">
-        <v>-13.327</v>
+        <v>-13.3518</v>
       </c>
     </row>
     <row r="3347">
@@ -75988,7 +75988,7 @@
       </c>
       <c r="I3347" t="inlineStr"/>
       <c r="J3347" t="n">
-        <v>-15.5188</v>
+        <v>-15.5372</v>
       </c>
     </row>
     <row r="3348">
@@ -76020,7 +76020,7 @@
         <v>-10.8</v>
       </c>
       <c r="J3348" t="n">
-        <v>-13.7309</v>
+        <v>-13.7513</v>
       </c>
     </row>
     <row r="3349">
@@ -76046,7 +76046,7 @@
       </c>
       <c r="I3349" t="inlineStr"/>
       <c r="J3349" t="n">
-        <v>-12.9067</v>
+        <v>-12.9172</v>
       </c>
     </row>
     <row r="3350">
@@ -76072,7 +76072,7 @@
       </c>
       <c r="I3350" t="inlineStr"/>
       <c r="J3350" t="n">
-        <v>-24.0469</v>
+        <v>-24.055</v>
       </c>
     </row>
     <row r="3351">
@@ -76098,7 +76098,7 @@
       </c>
       <c r="I3351" t="inlineStr"/>
       <c r="J3351" t="n">
-        <v>-26.5525</v>
+        <v>-26.5566</v>
       </c>
     </row>
     <row r="3352">
@@ -76124,7 +76124,7 @@
       </c>
       <c r="I3352" t="inlineStr"/>
       <c r="J3352" t="n">
-        <v>-24.2834</v>
+        <v>-24.2897</v>
       </c>
     </row>
     <row r="3353">
@@ -76156,7 +76156,7 @@
         <v>-13.8</v>
       </c>
       <c r="J3353" t="n">
-        <v>-23.2921</v>
+        <v>-23.2999</v>
       </c>
     </row>
     <row r="3354">
@@ -76230,7 +76230,7 @@
       </c>
       <c r="I3357" t="inlineStr"/>
       <c r="J3357" t="n">
-        <v>-18.7679</v>
+        <v>-18.7729</v>
       </c>
     </row>
     <row r="3358">
@@ -76256,7 +76256,7 @@
       </c>
       <c r="I3358" t="inlineStr"/>
       <c r="J3358" t="n">
-        <v>-18.3584</v>
+        <v>-18.3592</v>
       </c>
     </row>
     <row r="3359">
@@ -76288,7 +76288,7 @@
         <v>-16</v>
       </c>
       <c r="J3359" t="n">
-        <v>-17.8375</v>
+        <v>-17.8379</v>
       </c>
     </row>
     <row r="3360">
@@ -76314,7 +76314,7 @@
       </c>
       <c r="I3360" t="inlineStr"/>
       <c r="J3360" t="n">
-        <v>-13.4927</v>
+        <v>-13.4928</v>
       </c>
     </row>
     <row r="3361">
@@ -76340,7 +76340,7 @@
       </c>
       <c r="I3361" t="inlineStr"/>
       <c r="J3361" t="n">
-        <v>-13.603</v>
+        <v>-13.6073</v>
       </c>
     </row>
     <row r="3362">
@@ -76366,7 +76366,7 @@
       </c>
       <c r="I3362" t="inlineStr"/>
       <c r="J3362" t="n">
-        <v>-13.0834</v>
+        <v>-13.0912</v>
       </c>
     </row>
     <row r="3363">
@@ -76424,7 +76424,7 @@
         <v>-10.3</v>
       </c>
       <c r="J3364" t="n">
-        <v>-19.9371</v>
+        <v>-19.9387</v>
       </c>
     </row>
     <row r="3365">
@@ -76466,7 +76466,7 @@
       </c>
       <c r="I3366" t="inlineStr"/>
       <c r="J3366" t="n">
-        <v>-24.0478</v>
+        <v>-24.0485</v>
       </c>
     </row>
     <row r="3367">
@@ -76578,7 +76578,7 @@
       </c>
       <c r="I3372" t="inlineStr"/>
       <c r="J3372" t="n">
-        <v>-24.3508</v>
+        <v>-24.3554</v>
       </c>
     </row>
     <row r="3373">
@@ -76604,7 +76604,7 @@
       </c>
       <c r="I3373" t="inlineStr"/>
       <c r="J3373" t="n">
-        <v>-24.3829</v>
+        <v>-24.3872</v>
       </c>
     </row>
     <row r="3374">
@@ -76630,7 +76630,7 @@
       </c>
       <c r="I3374" t="inlineStr"/>
       <c r="J3374" t="n">
-        <v>-19.1026</v>
+        <v>-19.1128</v>
       </c>
     </row>
     <row r="3375">
@@ -76662,7 +76662,7 @@
         <v>-14.5</v>
       </c>
       <c r="J3375" t="n">
-        <v>-19.2143</v>
+        <v>-19.2222</v>
       </c>
     </row>
     <row r="3376">
@@ -76704,7 +76704,7 @@
       </c>
       <c r="I3377" t="inlineStr"/>
       <c r="J3377" t="n">
-        <v>-13.0764</v>
+        <v>-13.0799</v>
       </c>
     </row>
     <row r="3378">
@@ -76730,7 +76730,7 @@
       </c>
       <c r="I3378" t="inlineStr"/>
       <c r="J3378" t="n">
-        <v>-10.5272</v>
+        <v>-10.5419</v>
       </c>
     </row>
     <row r="3379">
@@ -76756,7 +76756,7 @@
       </c>
       <c r="I3379" t="inlineStr"/>
       <c r="J3379" t="n">
-        <v>-8.3924</v>
+        <v>-8.4137</v>
       </c>
     </row>
     <row r="3380">
@@ -76782,7 +76782,7 @@
       </c>
       <c r="I3380" t="inlineStr"/>
       <c r="J3380" t="n">
-        <v>-10.9323</v>
+        <v>-10.948</v>
       </c>
     </row>
     <row r="3381">
@@ -76814,7 +76814,7 @@
         <v>-12.2</v>
       </c>
       <c r="J3381" t="n">
-        <v>-9.1965</v>
+        <v>-9.204800000000001</v>
       </c>
     </row>
     <row r="3382">
@@ -76840,7 +76840,7 @@
       </c>
       <c r="I3382" t="inlineStr"/>
       <c r="J3382" t="n">
-        <v>-5.2714</v>
+        <v>-5.2797</v>
       </c>
     </row>
     <row r="3383">
@@ -76866,7 +76866,7 @@
       </c>
       <c r="I3383" t="inlineStr"/>
       <c r="J3383" t="n">
-        <v>-5.1136</v>
+        <v>-5.1298</v>
       </c>
     </row>
     <row r="3384">
@@ -76892,7 +76892,7 @@
       </c>
       <c r="I3384" t="inlineStr"/>
       <c r="J3384" t="n">
-        <v>-4.3386</v>
+        <v>-4.3574</v>
       </c>
     </row>
     <row r="3385">
@@ -76918,7 +76918,7 @@
       </c>
       <c r="I3385" t="inlineStr"/>
       <c r="J3385" t="n">
-        <v>-2.4325</v>
+        <v>-2.455</v>
       </c>
     </row>
     <row r="3386">
@@ -76950,7 +76950,7 @@
         <v>-14.9</v>
       </c>
       <c r="J3386" t="n">
-        <v>-1.0423</v>
+        <v>-1.0662</v>
       </c>
     </row>
     <row r="3387">
@@ -76976,7 +76976,7 @@
       </c>
       <c r="I3387" t="inlineStr"/>
       <c r="J3387" t="n">
-        <v>-6.3237</v>
+        <v>-6.3304</v>
       </c>
     </row>
     <row r="3388">
@@ -77002,7 +77002,7 @@
       </c>
       <c r="I3388" t="inlineStr"/>
       <c r="J3388" t="n">
-        <v>4.4655</v>
+        <v>4.4313</v>
       </c>
     </row>
     <row r="3389">
@@ -77028,7 +77028,7 @@
       </c>
       <c r="I3389" t="inlineStr"/>
       <c r="J3389" t="n">
-        <v>8.012499999999999</v>
+        <v>7.9741</v>
       </c>
     </row>
     <row r="3390">
@@ -77054,7 +77054,7 @@
       </c>
       <c r="I3390" t="inlineStr"/>
       <c r="J3390" t="n">
-        <v>12.9987</v>
+        <v>12.9545</v>
       </c>
     </row>
     <row r="3391">
@@ -77086,7 +77086,7 @@
         <v>-13.5</v>
       </c>
       <c r="J3391" t="n">
-        <v>5.2115</v>
+        <v>5.1831</v>
       </c>
     </row>
     <row r="3392">
@@ -77112,7 +77112,7 @@
       </c>
       <c r="I3392" t="inlineStr"/>
       <c r="J3392" t="n">
-        <v>4.2881</v>
+        <v>4.2778</v>
       </c>
     </row>
     <row r="3393">
@@ -77138,7 +77138,7 @@
       </c>
       <c r="I3393" t="inlineStr"/>
       <c r="J3393" t="n">
-        <v>7.6577</v>
+        <v>7.6438</v>
       </c>
     </row>
     <row r="3394">
@@ -77248,7 +77248,7 @@
       </c>
       <c r="I3397" t="inlineStr"/>
       <c r="J3397" t="n">
-        <v>17.78</v>
+        <v>17.7814</v>
       </c>
     </row>
     <row r="3398">
@@ -77274,7 +77274,7 @@
       </c>
       <c r="I3398" t="inlineStr"/>
       <c r="J3398" t="n">
-        <v>18.5063</v>
+        <v>18.4823</v>
       </c>
     </row>
     <row r="3399">
@@ -77300,7 +77300,7 @@
       </c>
       <c r="I3399" t="inlineStr"/>
       <c r="J3399" t="n">
-        <v>19.2122</v>
+        <v>19.1605</v>
       </c>
     </row>
     <row r="3400">
@@ -77326,7 +77326,7 @@
       </c>
       <c r="I3400" t="inlineStr"/>
       <c r="J3400" t="n">
-        <v>17.3888</v>
+        <v>17.3419</v>
       </c>
     </row>
     <row r="3401">
@@ -77358,7 +77358,7 @@
         <v>-13.4</v>
       </c>
       <c r="J3401" t="n">
-        <v>10.9925</v>
+        <v>10.9548</v>
       </c>
     </row>
     <row r="3402">
@@ -77384,7 +77384,7 @@
       </c>
       <c r="I3402" t="inlineStr"/>
       <c r="J3402" t="n">
-        <v>8.6617</v>
+        <v>8.713699999999999</v>
       </c>
     </row>
     <row r="3403">
@@ -77410,7 +77410,7 @@
       </c>
       <c r="I3403" t="inlineStr"/>
       <c r="J3403" t="n">
-        <v>13.6</v>
+        <v>13.684</v>
       </c>
     </row>
     <row r="3404">
@@ -77436,7 +77436,7 @@
       </c>
       <c r="I3404" t="inlineStr"/>
       <c r="J3404" t="n">
-        <v>15.1287</v>
+        <v>15.2093</v>
       </c>
     </row>
     <row r="3405">
@@ -77462,7 +77462,7 @@
       </c>
       <c r="I3405" t="inlineStr"/>
       <c r="J3405" t="n">
-        <v>18.3538</v>
+        <v>18.4346</v>
       </c>
     </row>
     <row r="3406">
@@ -77494,7 +77494,7 @@
         <v>-11.1</v>
       </c>
       <c r="J3406" t="n">
-        <v>18.7867</v>
+        <v>18.8667</v>
       </c>
     </row>
     <row r="3407">
@@ -77520,7 +77520,7 @@
       </c>
       <c r="I3407" t="inlineStr"/>
       <c r="J3407" t="n">
-        <v>8.423</v>
+        <v>8.4695</v>
       </c>
     </row>
     <row r="3408">
@@ -77546,7 +77546,7 @@
       </c>
       <c r="I3408" t="inlineStr"/>
       <c r="J3408" t="n">
-        <v>12.5084</v>
+        <v>12.5844</v>
       </c>
     </row>
     <row r="3409">
@@ -77572,7 +77572,7 @@
       </c>
       <c r="I3409" t="inlineStr"/>
       <c r="J3409" t="n">
-        <v>15.6804</v>
+        <v>15.7479</v>
       </c>
     </row>
     <row r="3410">
@@ -77596,7 +77596,7 @@
       </c>
       <c r="I3410" t="inlineStr"/>
       <c r="J3410" t="n">
-        <v>17.3379</v>
+        <v>17.4085</v>
       </c>
     </row>
     <row r="3411">
@@ -77628,7 +77628,7 @@
         <v>-10.8</v>
       </c>
       <c r="J3411" t="n">
-        <v>23.1559</v>
+        <v>23.2185</v>
       </c>
     </row>
     <row r="3412">
@@ -77654,7 +77654,7 @@
       </c>
       <c r="I3412" t="inlineStr"/>
       <c r="J3412" t="n">
-        <v>30.9904</v>
+        <v>30.9936</v>
       </c>
     </row>
     <row r="3413">
@@ -77680,7 +77680,7 @@
       </c>
       <c r="I3413" t="inlineStr"/>
       <c r="J3413" t="n">
-        <v>24.6215</v>
+        <v>24.6481</v>
       </c>
     </row>
     <row r="3414">
@@ -77706,7 +77706,7 @@
       </c>
       <c r="I3414" t="inlineStr"/>
       <c r="J3414" t="n">
-        <v>25.509</v>
+        <v>25.5372</v>
       </c>
     </row>
     <row r="3415">
@@ -77732,7 +77732,7 @@
       </c>
       <c r="I3415" t="inlineStr"/>
       <c r="J3415" t="n">
-        <v>23.8203</v>
+        <v>23.8439</v>
       </c>
     </row>
     <row r="3416">
@@ -77764,7 +77764,7 @@
         <v>-11.5</v>
       </c>
       <c r="J3416" t="n">
-        <v>24.0374</v>
+        <v>24.0611</v>
       </c>
     </row>
     <row r="3417">
@@ -77790,7 +77790,7 @@
       </c>
       <c r="I3417" t="inlineStr"/>
       <c r="J3417" t="n">
-        <v>17.0537</v>
+        <v>17.0651</v>
       </c>
     </row>
     <row r="3418">
@@ -77816,7 +77816,7 @@
       </c>
       <c r="I3418" t="inlineStr"/>
       <c r="J3418" t="n">
-        <v>8.861599999999999</v>
+        <v>8.904500000000001</v>
       </c>
     </row>
     <row r="3419">
@@ -77842,7 +77842,7 @@
       </c>
       <c r="I3419" t="inlineStr"/>
       <c r="J3419" t="n">
-        <v>6.9985</v>
+        <v>7.0468</v>
       </c>
     </row>
     <row r="3420">
@@ -77868,7 +77868,7 @@
       </c>
       <c r="I3420" t="inlineStr"/>
       <c r="J3420" t="n">
-        <v>4.9365</v>
+        <v>4.9818</v>
       </c>
     </row>
     <row r="3421">
@@ -77900,7 +77900,7 @@
         <v>-7</v>
       </c>
       <c r="J3421" t="n">
-        <v>0.7979000000000001</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="3422">
@@ -77926,7 +77926,7 @@
       </c>
       <c r="I3422" t="inlineStr"/>
       <c r="J3422" t="n">
-        <v>-8.610200000000001</v>
+        <v>-8.5852</v>
       </c>
     </row>
     <row r="3423">
@@ -77952,7 +77952,7 @@
       </c>
       <c r="I3423" t="inlineStr"/>
       <c r="J3423" t="n">
-        <v>-9.8201</v>
+        <v>-9.763299999999999</v>
       </c>
     </row>
     <row r="3424">
@@ -77978,7 +77978,7 @@
       </c>
       <c r="I3424" t="inlineStr"/>
       <c r="J3424" t="n">
-        <v>-8.877700000000001</v>
+        <v>-8.8207</v>
       </c>
     </row>
     <row r="3425">
@@ -78004,7 +78004,7 @@
       </c>
       <c r="I3425" t="inlineStr"/>
       <c r="J3425" t="n">
-        <v>-4.0102</v>
+        <v>-3.9651</v>
       </c>
     </row>
     <row r="3426">
@@ -78036,7 +78036,7 @@
         <v>-9.1</v>
       </c>
       <c r="J3426" t="n">
-        <v>-2.5124</v>
+        <v>-2.4683</v>
       </c>
     </row>
     <row r="3427">
@@ -78062,7 +78062,7 @@
       </c>
       <c r="I3427" t="inlineStr"/>
       <c r="J3427" t="n">
-        <v>0.0411</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="3428">
@@ -78088,7 +78088,7 @@
       </c>
       <c r="I3428" t="inlineStr"/>
       <c r="J3428" t="n">
-        <v>-2.1151</v>
+        <v>-2.0689</v>
       </c>
     </row>
     <row r="3429">
@@ -78110,7 +78110,7 @@
       </c>
       <c r="I3429" t="inlineStr"/>
       <c r="J3429" t="n">
-        <v>-2.6526</v>
+        <v>-2.6038</v>
       </c>
     </row>
     <row r="3430">
@@ -78136,7 +78136,7 @@
       </c>
       <c r="I3430" t="inlineStr"/>
       <c r="J3430" t="n">
-        <v>-1.9067</v>
+        <v>-1.8629</v>
       </c>
     </row>
     <row r="3431">
@@ -78168,7 +78168,7 @@
         <v>-5.4</v>
       </c>
       <c r="J3431" t="n">
-        <v>3.959</v>
+        <v>3.9916</v>
       </c>
     </row>
     <row r="3432">
@@ -78194,7 +78194,7 @@
       </c>
       <c r="I3432" t="inlineStr"/>
       <c r="J3432" t="n">
-        <v>2.8</v>
+        <v>2.8097</v>
       </c>
     </row>
     <row r="3433">
@@ -78220,7 +78220,7 @@
       </c>
       <c r="I3433" t="inlineStr"/>
       <c r="J3433" t="n">
-        <v>7.6697</v>
+        <v>7.694</v>
       </c>
     </row>
     <row r="3434">
@@ -78246,7 +78246,7 @@
       </c>
       <c r="I3434" t="inlineStr"/>
       <c r="J3434" t="n">
-        <v>5.8146</v>
+        <v>5.8418</v>
       </c>
     </row>
     <row r="3435">
@@ -78278,7 +78278,7 @@
         <v>-1.6</v>
       </c>
       <c r="J3435" t="n">
-        <v>3.4372</v>
+        <v>3.4681</v>
       </c>
     </row>
     <row r="3436">
@@ -78304,7 +78304,7 @@
       </c>
       <c r="I3436" t="inlineStr"/>
       <c r="J3436" t="n">
-        <v>-2.0305</v>
+        <v>-2.0133</v>
       </c>
     </row>
     <row r="3437">
@@ -78330,7 +78330,7 @@
       </c>
       <c r="I3437" t="inlineStr"/>
       <c r="J3437" t="n">
-        <v>-13.5758</v>
+        <v>-13.5177</v>
       </c>
     </row>
     <row r="3438">
@@ -78356,7 +78356,7 @@
       </c>
       <c r="I3438" t="inlineStr"/>
       <c r="J3438" t="n">
-        <v>-17.9021</v>
+        <v>-17.8358</v>
       </c>
     </row>
     <row r="3439">
@@ -78382,7 +78382,7 @@
       </c>
       <c r="I3439" t="inlineStr"/>
       <c r="J3439" t="n">
-        <v>-14.2818</v>
+        <v>-14.2257</v>
       </c>
     </row>
     <row r="3440">
@@ -78414,7 +78414,7 @@
         <v>-0.1</v>
       </c>
       <c r="J3440" t="n">
-        <v>-7.0509</v>
+        <v>-7.0043</v>
       </c>
     </row>
     <row r="3441">
@@ -78440,7 +78440,7 @@
       </c>
       <c r="I3441" t="inlineStr"/>
       <c r="J3441" t="n">
-        <v>0.6927</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="3442">
@@ -78466,7 +78466,7 @@
       </c>
       <c r="I3442" t="inlineStr"/>
       <c r="J3442" t="n">
-        <v>-10.2835</v>
+        <v>-10.2224</v>
       </c>
     </row>
     <row r="3443">
@@ -78492,7 +78492,7 @@
       </c>
       <c r="I3443" t="inlineStr"/>
       <c r="J3443" t="n">
-        <v>-14.5626</v>
+        <v>-14.4967</v>
       </c>
     </row>
     <row r="3444">
@@ -78518,7 +78518,7 @@
       </c>
       <c r="I3444" t="inlineStr"/>
       <c r="J3444" t="n">
-        <v>-15.109</v>
+        <v>-15.0486</v>
       </c>
     </row>
     <row r="3445">
@@ -78550,7 +78550,7 @@
         <v>5.3</v>
       </c>
       <c r="J3445" t="n">
-        <v>-12.7495</v>
+        <v>-12.6917</v>
       </c>
     </row>
     <row r="3446">
@@ -78574,7 +78574,7 @@
       </c>
       <c r="I3446" t="inlineStr"/>
       <c r="J3446" t="n">
-        <v>-27.2257</v>
+        <v>-27.1948</v>
       </c>
     </row>
     <row r="3447">
@@ -78600,7 +78600,7 @@
       </c>
       <c r="I3447" t="inlineStr"/>
       <c r="J3447" t="n">
-        <v>-24.1549</v>
+        <v>-24.0885</v>
       </c>
     </row>
     <row r="3448">
@@ -78626,7 +78626,7 @@
       </c>
       <c r="I3448" t="inlineStr"/>
       <c r="J3448" t="n">
-        <v>-22.479</v>
+        <v>-22.4133</v>
       </c>
     </row>
     <row r="3449">
@@ -78652,7 +78652,7 @@
       </c>
       <c r="I3449" t="inlineStr"/>
       <c r="J3449" t="n">
-        <v>-23.4894</v>
+        <v>-23.427</v>
       </c>
     </row>
     <row r="3450">
@@ -78684,7 +78684,7 @@
         <v>7.6</v>
       </c>
       <c r="J3450" t="n">
-        <v>-18.0539</v>
+        <v>-18.0006</v>
       </c>
     </row>
     <row r="3451">
@@ -78726,7 +78726,7 @@
       </c>
       <c r="I3452" t="inlineStr"/>
       <c r="J3452" t="n">
-        <v>-16.2677</v>
+        <v>-16.2473</v>
       </c>
     </row>
     <row r="3453">
@@ -78854,7 +78854,7 @@
       </c>
       <c r="I3459" t="inlineStr"/>
       <c r="J3459" t="n">
-        <v>-14.8448</v>
+        <v>-14.8209</v>
       </c>
     </row>
     <row r="3460">
@@ -78880,7 +78880,7 @@
       </c>
       <c r="I3460" t="inlineStr"/>
       <c r="J3460" t="n">
-        <v>-9.484500000000001</v>
+        <v>-9.465199999999999</v>
       </c>
     </row>
     <row r="3461">
@@ -78912,7 +78912,7 @@
         <v>18</v>
       </c>
       <c r="J3461" t="n">
-        <v>-6.5667</v>
+        <v>-6.5379</v>
       </c>
     </row>
     <row r="3462">
@@ -78954,7 +78954,7 @@
       </c>
       <c r="I3463" t="inlineStr"/>
       <c r="J3463" t="n">
-        <v>-3.3019</v>
+        <v>-3.2938</v>
       </c>
     </row>
     <row r="3464">
@@ -78980,7 +78980,7 @@
       </c>
       <c r="I3464" t="inlineStr"/>
       <c r="J3464" t="n">
-        <v>-5.7381</v>
+        <v>-5.7056</v>
       </c>
     </row>
     <row r="3465">
@@ -79006,7 +79006,7 @@
       </c>
       <c r="I3465" t="inlineStr"/>
       <c r="J3465" t="n">
-        <v>-6.5269</v>
+        <v>-6.4926</v>
       </c>
     </row>
     <row r="3466">
@@ -79032,7 +79032,7 @@
       </c>
       <c r="I3466" t="inlineStr"/>
       <c r="J3466" t="n">
-        <v>-0.2263</v>
+        <v>-0.2017</v>
       </c>
     </row>
     <row r="3467">
@@ -79064,7 +79064,7 @@
         <v>17.2</v>
       </c>
       <c r="J3467" t="n">
-        <v>10.084</v>
+        <v>10.0938</v>
       </c>
     </row>
     <row r="3468">
@@ -79088,7 +79088,7 @@
       </c>
       <c r="I3468" t="inlineStr"/>
       <c r="J3468" t="n">
-        <v>22.6692</v>
+        <v>22.667</v>
       </c>
     </row>
     <row r="3469">
@@ -79114,7 +79114,7 @@
       </c>
       <c r="I3469" t="inlineStr"/>
       <c r="J3469" t="n">
-        <v>24.1504</v>
+        <v>24.1546</v>
       </c>
     </row>
     <row r="3470">
@@ -79140,7 +79140,7 @@
       </c>
       <c r="I3470" t="inlineStr"/>
       <c r="J3470" t="n">
-        <v>24.4237</v>
+        <v>24.4284</v>
       </c>
     </row>
     <row r="3471">
@@ -79166,7 +79166,7 @@
       </c>
       <c r="I3471" t="inlineStr"/>
       <c r="J3471" t="n">
-        <v>26.4075</v>
+        <v>26.4008</v>
       </c>
     </row>
     <row r="3472">
@@ -79198,7 +79198,7 @@
         <v>15.5</v>
       </c>
       <c r="J3472" t="n">
-        <v>28.1189</v>
+        <v>28.1092</v>
       </c>
     </row>
     <row r="3473">
@@ -79224,7 +79224,7 @@
       </c>
       <c r="I3473" t="inlineStr"/>
       <c r="J3473" t="n">
-        <v>25.8278</v>
+        <v>25.8214</v>
       </c>
     </row>
     <row r="3474">
@@ -79250,7 +79250,7 @@
       </c>
       <c r="I3474" t="inlineStr"/>
       <c r="J3474" t="n">
-        <v>25.8428</v>
+        <v>25.8529</v>
       </c>
     </row>
     <row r="3475">
@@ -79276,7 +79276,7 @@
       </c>
       <c r="I3475" t="inlineStr"/>
       <c r="J3475" t="n">
-        <v>25.2769</v>
+        <v>25.2965</v>
       </c>
     </row>
     <row r="3476">
@@ -79302,7 +79302,7 @@
       </c>
       <c r="I3476" t="inlineStr"/>
       <c r="J3476" t="n">
-        <v>22.5253</v>
+        <v>22.5236</v>
       </c>
     </row>
     <row r="3477">
@@ -79334,7 +79334,7 @@
         <v>12.7</v>
       </c>
       <c r="J3477" t="n">
-        <v>21.4611</v>
+        <v>21.4838</v>
       </c>
     </row>
     <row r="3478">
@@ -79360,7 +79360,7 @@
       </c>
       <c r="I3478" t="inlineStr"/>
       <c r="J3478" t="n">
-        <v>25.5794</v>
+        <v>25.5861</v>
       </c>
     </row>
     <row r="3479">
@@ -79386,7 +79386,7 @@
       </c>
       <c r="I3479" t="inlineStr"/>
       <c r="J3479" t="n">
-        <v>18.4835</v>
+        <v>18.4881</v>
       </c>
     </row>
     <row r="3480">
@@ -79412,7 +79412,7 @@
       </c>
       <c r="I3480" t="inlineStr"/>
       <c r="J3480" t="n">
-        <v>20.5162</v>
+        <v>20.5249</v>
       </c>
     </row>
     <row r="3481">
@@ -79438,7 +79438,7 @@
       </c>
       <c r="I3481" t="inlineStr"/>
       <c r="J3481" t="n">
-        <v>20.9698</v>
+        <v>20.979</v>
       </c>
     </row>
     <row r="3482">
@@ -79470,7 +79470,7 @@
         <v>8.5</v>
       </c>
       <c r="J3482" t="n">
-        <v>20.241</v>
+        <v>20.2492</v>
       </c>
     </row>
     <row r="3483">
@@ -79496,7 +79496,7 @@
       </c>
       <c r="I3483" t="inlineStr"/>
       <c r="J3483" t="n">
-        <v>12.6508</v>
+        <v>12.6725</v>
       </c>
     </row>
     <row r="3484">
@@ -79522,7 +79522,7 @@
       </c>
       <c r="I3484" t="inlineStr"/>
       <c r="J3484" t="n">
-        <v>8.363799999999999</v>
+        <v>8.404400000000001</v>
       </c>
     </row>
     <row r="3485">
@@ -79548,7 +79548,7 @@
       </c>
       <c r="I3485" t="inlineStr"/>
       <c r="J3485" t="n">
-        <v>11.7274</v>
+        <v>11.7642</v>
       </c>
     </row>
     <row r="3486">
@@ -79574,7 +79574,7 @@
       </c>
       <c r="I3486" t="inlineStr"/>
       <c r="J3486" t="n">
-        <v>10.459</v>
+        <v>10.4999</v>
       </c>
     </row>
     <row r="3487">
@@ -79606,7 +79606,7 @@
         <v>12.8</v>
       </c>
       <c r="J3487" t="n">
-        <v>11.201</v>
+        <v>11.2434</v>
       </c>
     </row>
     <row r="3488">
@@ -79632,7 +79632,7 @@
       </c>
       <c r="I3488" t="inlineStr"/>
       <c r="J3488" t="n">
-        <v>15.0804</v>
+        <v>15.1053</v>
       </c>
     </row>
     <row r="3489">
@@ -79658,7 +79658,7 @@
       </c>
       <c r="I3489" t="inlineStr"/>
       <c r="J3489" t="n">
-        <v>17.9963</v>
+        <v>18.0407</v>
       </c>
     </row>
     <row r="3490">
@@ -79684,7 +79684,7 @@
       </c>
       <c r="I3490" t="inlineStr"/>
       <c r="J3490" t="n">
-        <v>13.9039</v>
+        <v>13.8326</v>
       </c>
     </row>
     <row r="3491">
@@ -79710,7 +79710,7 @@
       </c>
       <c r="I3491" t="inlineStr"/>
       <c r="J3491" t="n">
-        <v>16.1072</v>
+        <v>16.1628</v>
       </c>
     </row>
     <row r="3492">
@@ -79742,7 +79742,7 @@
         <v>12.3</v>
       </c>
       <c r="J3492" t="n">
-        <v>18.6639</v>
+        <v>18.7177</v>
       </c>
     </row>
     <row r="3493">
@@ -79768,7 +79768,7 @@
       </c>
       <c r="I3493" t="inlineStr"/>
       <c r="J3493" t="n">
-        <v>23.9412</v>
+        <v>23.9684</v>
       </c>
     </row>
     <row r="3494">
@@ -79794,7 +79794,7 @@
       </c>
       <c r="I3494" t="inlineStr"/>
       <c r="J3494" t="n">
-        <v>26.661</v>
+        <v>26.7012</v>
       </c>
     </row>
     <row r="3495">
@@ -79820,7 +79820,7 @@
       </c>
       <c r="I3495" t="inlineStr"/>
       <c r="J3495" t="n">
-        <v>27.2978</v>
+        <v>27.3386</v>
       </c>
     </row>
     <row r="3496">
@@ -79846,7 +79846,7 @@
       </c>
       <c r="I3496" t="inlineStr"/>
       <c r="J3496" t="n">
-        <v>24.1</v>
+        <v>24.1456</v>
       </c>
     </row>
     <row r="3497">
@@ -79878,7 +79878,7 @@
         <v>10</v>
       </c>
       <c r="J3497" t="n">
-        <v>23.8505</v>
+        <v>23.8958</v>
       </c>
     </row>
     <row r="3498">
@@ -79904,7 +79904,7 @@
       </c>
       <c r="I3498" t="inlineStr"/>
       <c r="J3498" t="n">
-        <v>23.4704</v>
+        <v>23.4242</v>
       </c>
     </row>
     <row r="3499">
@@ -79930,7 +79930,7 @@
       </c>
       <c r="I3499" t="inlineStr"/>
       <c r="J3499" t="n">
-        <v>22.4972</v>
+        <v>22.407</v>
       </c>
     </row>
     <row r="3500">
@@ -79956,7 +79956,7 @@
       </c>
       <c r="I3500" t="inlineStr"/>
       <c r="J3500" t="n">
-        <v>17.5332</v>
+        <v>17.4489</v>
       </c>
     </row>
     <row r="3501">
@@ -79982,7 +79982,7 @@
       </c>
       <c r="I3501" t="inlineStr"/>
       <c r="J3501" t="n">
-        <v>17.8913</v>
+        <v>17.8711</v>
       </c>
     </row>
     <row r="3502">
@@ -80030,7 +80030,7 @@
       </c>
       <c r="I3503" t="inlineStr"/>
       <c r="J3503" t="n">
-        <v>5.3231</v>
+        <v>5.285</v>
       </c>
     </row>
     <row r="3504">
@@ -80056,7 +80056,7 @@
       </c>
       <c r="I3504" t="inlineStr"/>
       <c r="J3504" t="n">
-        <v>15.9823</v>
+        <v>15.9625</v>
       </c>
     </row>
     <row r="3505">
@@ -80082,7 +80082,7 @@
       </c>
       <c r="I3505" t="inlineStr"/>
       <c r="J3505" t="n">
-        <v>14.1968</v>
+        <v>14.1232</v>
       </c>
     </row>
     <row r="3506">
@@ -80108,7 +80108,7 @@
       </c>
       <c r="I3506" t="inlineStr"/>
       <c r="J3506" t="n">
-        <v>20.1727</v>
+        <v>20.0924</v>
       </c>
     </row>
     <row r="3507">
@@ -80140,7 +80140,7 @@
         <v>-1.55</v>
       </c>
       <c r="J3507" t="n">
-        <v>19.7498</v>
+        <v>19.7317</v>
       </c>
     </row>
     <row r="3508">
@@ -80166,7 +80166,7 @@
       </c>
       <c r="I3508" t="inlineStr"/>
       <c r="J3508" t="n">
-        <v>18.3467</v>
+        <v>18.3683</v>
       </c>
     </row>
     <row r="3509">
@@ -80192,7 +80192,7 @@
       </c>
       <c r="I3509" t="inlineStr"/>
       <c r="J3509" t="n">
-        <v>17.6083</v>
+        <v>17.6536</v>
       </c>
     </row>
     <row r="3510">
@@ -80218,7 +80218,7 @@
       </c>
       <c r="I3510" t="inlineStr"/>
       <c r="J3510" t="n">
-        <v>14.5467</v>
+        <v>14.5987</v>
       </c>
     </row>
     <row r="3511">
@@ -80244,7 +80244,7 @@
       </c>
       <c r="I3511" t="inlineStr"/>
       <c r="J3511" t="n">
-        <v>18.0102</v>
+        <v>18.0572</v>
       </c>
     </row>
     <row r="3512">
@@ -80272,7 +80272,7 @@
         <v>-0.9</v>
       </c>
       <c r="J3512" t="n">
-        <v>14.4524</v>
+        <v>14.5026</v>
       </c>
     </row>
     <row r="3513">
@@ -80298,7 +80298,7 @@
       </c>
       <c r="I3513" t="inlineStr"/>
       <c r="J3513" t="n">
-        <v>10.8061</v>
+        <v>10.8317</v>
       </c>
     </row>
     <row r="3514">
@@ -80324,7 +80324,7 @@
       </c>
       <c r="I3514" t="inlineStr"/>
       <c r="J3514" t="n">
-        <v>9.880599999999999</v>
+        <v>9.930999999999999</v>
       </c>
     </row>
     <row r="3515">
@@ -80350,7 +80350,7 @@
       </c>
       <c r="I3515" t="inlineStr"/>
       <c r="J3515" t="n">
-        <v>11.9036</v>
+        <v>11.9584</v>
       </c>
     </row>
     <row r="3516">
@@ -80376,7 +80376,7 @@
       </c>
       <c r="I3516" t="inlineStr"/>
       <c r="J3516" t="n">
-        <v>15.7467</v>
+        <v>15.7968</v>
       </c>
     </row>
     <row r="3517">
@@ -80408,7 +80408,7 @@
         <v>-1.1</v>
       </c>
       <c r="J3517" t="n">
-        <v>17.9628</v>
+        <v>18.0058</v>
       </c>
     </row>
     <row r="3518">
@@ -80450,7 +80450,7 @@
       </c>
       <c r="I3519" t="inlineStr"/>
       <c r="J3519" t="n">
-        <v>4.5692</v>
+        <v>4.5909</v>
       </c>
     </row>
     <row r="3520">
@@ -80476,7 +80476,7 @@
       </c>
       <c r="I3520" t="inlineStr"/>
       <c r="J3520" t="n">
-        <v>11.0063</v>
+        <v>11.0374</v>
       </c>
     </row>
     <row r="3521">
@@ -80502,7 +80502,7 @@
       </c>
       <c r="I3521" t="inlineStr"/>
       <c r="J3521" t="n">
-        <v>12.5742</v>
+        <v>12.6054</v>
       </c>
     </row>
     <row r="3522">
@@ -80582,7 +80582,7 @@
       </c>
       <c r="I3525" t="inlineStr"/>
       <c r="J3525" t="n">
-        <v>11.088</v>
+        <v>11.1153</v>
       </c>
     </row>
     <row r="3526">
@@ -80608,7 +80608,7 @@
       </c>
       <c r="I3526" t="inlineStr"/>
       <c r="J3526" t="n">
-        <v>15.2559</v>
+        <v>15.2818</v>
       </c>
     </row>
     <row r="3527">
@@ -80634,7 +80634,7 @@
       </c>
       <c r="I3527" t="inlineStr"/>
       <c r="J3527" t="n">
-        <v>15.7917</v>
+        <v>15.8176</v>
       </c>
     </row>
     <row r="3528">
@@ -80666,7 +80666,7 @@
         <v>-7.05</v>
       </c>
       <c r="J3528" t="n">
-        <v>16.8403</v>
+        <v>16.863</v>
       </c>
     </row>
     <row r="3529">
@@ -80692,7 +80692,7 @@
       </c>
       <c r="I3529" t="inlineStr"/>
       <c r="J3529" t="n">
-        <v>16.5088</v>
+        <v>16.5135</v>
       </c>
     </row>
     <row r="3530">
@@ -80718,7 +80718,7 @@
       </c>
       <c r="I3530" t="inlineStr"/>
       <c r="J3530" t="n">
-        <v>15.2871</v>
+        <v>15.2999</v>
       </c>
     </row>
     <row r="3531">
@@ -80744,7 +80744,7 @@
       </c>
       <c r="I3531" t="inlineStr"/>
       <c r="J3531" t="n">
-        <v>20.6985</v>
+        <v>20.721</v>
       </c>
     </row>
     <row r="3532">
@@ -80770,7 +80770,7 @@
       </c>
       <c r="I3532" t="inlineStr"/>
       <c r="J3532" t="n">
-        <v>18.8444</v>
+        <v>18.8671</v>
       </c>
     </row>
     <row r="3533">
@@ -80802,7 +80802,7 @@
         <v>-4.5</v>
       </c>
       <c r="J3533" t="n">
-        <v>20.4622</v>
+        <v>20.4786</v>
       </c>
     </row>
     <row r="3534">
@@ -80828,7 +80828,7 @@
       </c>
       <c r="I3534" t="inlineStr"/>
       <c r="J3534" t="n">
-        <v>15.9468</v>
+        <v>15.9555</v>
       </c>
     </row>
     <row r="3535">
@@ -80854,7 +80854,7 @@
       </c>
       <c r="I3535" t="inlineStr"/>
       <c r="J3535" t="n">
-        <v>15.729</v>
+        <v>15.7383</v>
       </c>
     </row>
     <row r="3536">
@@ -80880,7 +80880,7 @@
       </c>
       <c r="I3536" t="inlineStr"/>
       <c r="J3536" t="n">
-        <v>15.0493</v>
+        <v>15.0653</v>
       </c>
     </row>
     <row r="3537">
@@ -80906,7 +80906,7 @@
       </c>
       <c r="I3537" t="inlineStr"/>
       <c r="J3537" t="n">
-        <v>16.86</v>
+        <v>16.873</v>
       </c>
     </row>
     <row r="3538">
@@ -80938,7 +80938,7 @@
         <v>-7.6</v>
       </c>
       <c r="J3538" t="n">
-        <v>17.0116</v>
+        <v>17.0235</v>
       </c>
     </row>
     <row r="3539">
@@ -80962,7 +80962,7 @@
       </c>
       <c r="I3539" t="inlineStr"/>
       <c r="J3539" t="n">
-        <v>19.1462</v>
+        <v>19.1485</v>
       </c>
     </row>
     <row r="3540">
@@ -80988,7 +80988,7 @@
       </c>
       <c r="I3540" t="inlineStr"/>
       <c r="J3540" t="n">
-        <v>19.9638</v>
+        <v>19.9681</v>
       </c>
     </row>
     <row r="3541">
@@ -81014,7 +81014,7 @@
       </c>
       <c r="I3541" t="inlineStr"/>
       <c r="J3541" t="n">
-        <v>21.0555</v>
+        <v>21.0655</v>
       </c>
     </row>
     <row r="3542">
@@ -81040,7 +81040,7 @@
       </c>
       <c r="I3542" t="inlineStr"/>
       <c r="J3542" t="n">
-        <v>21.1741</v>
+        <v>21.1845</v>
       </c>
     </row>
     <row r="3543">
@@ -81072,7 +81072,7 @@
         <v>-1.1</v>
       </c>
       <c r="J3543" t="n">
-        <v>17.4384</v>
+        <v>17.451</v>
       </c>
     </row>
     <row r="3544">
@@ -81130,7 +81130,7 @@
       </c>
       <c r="I3546" t="inlineStr"/>
       <c r="J3546" t="n">
-        <v>14.6316</v>
+        <v>14.641</v>
       </c>
     </row>
     <row r="3547">
@@ -81156,7 +81156,7 @@
       </c>
       <c r="I3547" t="inlineStr"/>
       <c r="J3547" t="n">
-        <v>13.5268</v>
+        <v>13.5453</v>
       </c>
     </row>
     <row r="3548">
@@ -81182,7 +81182,7 @@
       </c>
       <c r="I3548" t="inlineStr"/>
       <c r="J3548" t="n">
-        <v>13.4374</v>
+        <v>13.4528</v>
       </c>
     </row>
     <row r="3549">
@@ -81214,7 +81214,7 @@
         <v>-4.2</v>
       </c>
       <c r="J3549" t="n">
-        <v>15.4656</v>
+        <v>15.4707</v>
       </c>
     </row>
     <row r="3550">
@@ -81240,7 +81240,7 @@
       </c>
       <c r="I3550" t="inlineStr"/>
       <c r="J3550" t="n">
-        <v>20.1059</v>
+        <v>20.1021</v>
       </c>
     </row>
     <row r="3551">
@@ -81266,7 +81266,7 @@
       </c>
       <c r="I3551" t="inlineStr"/>
       <c r="J3551" t="n">
-        <v>19.764</v>
+        <v>19.7629</v>
       </c>
     </row>
     <row r="3552">
@@ -81292,7 +81292,7 @@
       </c>
       <c r="I3552" t="inlineStr"/>
       <c r="J3552" t="n">
-        <v>15.3375</v>
+        <v>15.349</v>
       </c>
     </row>
     <row r="3553">
@@ -81318,7 +81318,7 @@
       </c>
       <c r="I3553" t="inlineStr"/>
       <c r="J3553" t="n">
-        <v>14.9358</v>
+        <v>14.9582</v>
       </c>
     </row>
     <row r="3554">
@@ -81350,7 +81350,7 @@
         <v>-8</v>
       </c>
       <c r="J3554" t="n">
-        <v>17.545</v>
+        <v>17.5576</v>
       </c>
     </row>
     <row r="3555">
@@ -81376,7 +81376,7 @@
       </c>
       <c r="I3555" t="inlineStr"/>
       <c r="J3555" t="n">
-        <v>6.6947</v>
+        <v>6.706</v>
       </c>
     </row>
     <row r="3556">
@@ -81402,7 +81402,7 @@
       </c>
       <c r="I3556" t="inlineStr"/>
       <c r="J3556" t="n">
-        <v>9.8409</v>
+        <v>9.861700000000001</v>
       </c>
     </row>
     <row r="3557">
@@ -81428,7 +81428,7 @@
       </c>
       <c r="I3557" t="inlineStr"/>
       <c r="J3557" t="n">
-        <v>3.7994</v>
+        <v>3.8338</v>
       </c>
     </row>
     <row r="3558">
@@ -81452,7 +81452,7 @@
       </c>
       <c r="I3558" t="inlineStr"/>
       <c r="J3558" t="n">
-        <v>2.3511</v>
+        <v>2.3898</v>
       </c>
     </row>
     <row r="3559">
@@ -81484,7 +81484,7 @@
         <v>-8</v>
       </c>
       <c r="J3559" t="n">
-        <v>0.2295</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="3560">
@@ -81510,7 +81510,7 @@
       </c>
       <c r="I3560" t="inlineStr"/>
       <c r="J3560" t="n">
-        <v>6.9764</v>
+        <v>6.9887</v>
       </c>
     </row>
     <row r="3561">
@@ -81536,7 +81536,7 @@
       </c>
       <c r="I3561" t="inlineStr"/>
       <c r="J3561" t="n">
-        <v>0.4168</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="3562">
@@ -81562,7 +81562,7 @@
       </c>
       <c r="I3562" t="inlineStr"/>
       <c r="J3562" t="n">
-        <v>9.383699999999999</v>
+        <v>9.4085</v>
       </c>
     </row>
     <row r="3563">
@@ -81588,7 +81588,7 @@
       </c>
       <c r="I3563" t="inlineStr"/>
       <c r="J3563" t="n">
-        <v>12.588</v>
+        <v>12.6084</v>
       </c>
     </row>
     <row r="3564">
@@ -81620,7 +81620,7 @@
         <v>-9.5</v>
       </c>
       <c r="J3564" t="n">
-        <v>12.3614</v>
+        <v>12.3757</v>
       </c>
     </row>
     <row r="3565">
@@ -81646,7 +81646,7 @@
       </c>
       <c r="I3565" t="inlineStr"/>
       <c r="J3565" t="n">
-        <v>14.3442</v>
+        <v>14.3434</v>
       </c>
     </row>
     <row r="3566">
@@ -81672,7 +81672,7 @@
       </c>
       <c r="I3566" t="inlineStr"/>
       <c r="J3566" t="n">
-        <v>16.1532</v>
+        <v>16.1607</v>
       </c>
     </row>
     <row r="3567">
@@ -81698,7 +81698,7 @@
       </c>
       <c r="I3567" t="inlineStr"/>
       <c r="J3567" t="n">
-        <v>18.725</v>
+        <v>18.7362</v>
       </c>
     </row>
     <row r="3568">
@@ -81724,7 +81724,7 @@
       </c>
       <c r="I3568" t="inlineStr"/>
       <c r="J3568" t="n">
-        <v>18.202</v>
+        <v>18.218</v>
       </c>
     </row>
     <row r="3569">
@@ -81756,7 +81756,7 @@
         <v>-4.9</v>
       </c>
       <c r="J3569" t="n">
-        <v>17.7466</v>
+        <v>17.7544</v>
       </c>
     </row>
     <row r="3570">
@@ -81782,7 +81782,7 @@
       </c>
       <c r="I3570" t="inlineStr"/>
       <c r="J3570" t="n">
-        <v>19.0537</v>
+        <v>19.0525</v>
       </c>
     </row>
     <row r="3571">
@@ -81808,7 +81808,7 @@
       </c>
       <c r="I3571" t="inlineStr"/>
       <c r="J3571" t="n">
-        <v>22.0345</v>
+        <v>22.0469</v>
       </c>
     </row>
     <row r="3572">
@@ -81834,7 +81834,7 @@
       </c>
       <c r="I3572" t="inlineStr"/>
       <c r="J3572" t="n">
-        <v>23.9311</v>
+        <v>23.948</v>
       </c>
     </row>
     <row r="3573">
@@ -81860,7 +81860,7 @@
       </c>
       <c r="I3573" t="inlineStr"/>
       <c r="J3573" t="n">
-        <v>24.5253</v>
+        <v>24.546</v>
       </c>
     </row>
     <row r="3574">
@@ -81892,7 +81892,7 @@
         <v>-2.9</v>
       </c>
       <c r="J3574" t="n">
-        <v>26.7113</v>
+        <v>26.7238</v>
       </c>
     </row>
     <row r="3575">
@@ -81918,7 +81918,7 @@
       </c>
       <c r="I3575" t="inlineStr"/>
       <c r="J3575" t="n">
-        <v>27.4585</v>
+        <v>27.4603</v>
       </c>
     </row>
     <row r="3576">
@@ -81944,7 +81944,7 @@
       </c>
       <c r="I3576" t="inlineStr"/>
       <c r="J3576" t="n">
-        <v>32.9717</v>
+        <v>32.9833</v>
       </c>
     </row>
     <row r="3577">
@@ -81970,7 +81970,7 @@
       </c>
       <c r="I3577" t="inlineStr"/>
       <c r="J3577" t="n">
-        <v>33.8071</v>
+        <v>33.8239</v>
       </c>
     </row>
     <row r="3578">
@@ -81996,7 +81996,7 @@
       </c>
       <c r="I3578" t="inlineStr"/>
       <c r="J3578" t="n">
-        <v>36.3112</v>
+        <v>36.3254</v>
       </c>
     </row>
     <row r="3579">
@@ -82028,7 +82028,7 @@
         <v>1.5</v>
       </c>
       <c r="J3579" t="n">
-        <v>33.16</v>
+        <v>33.172</v>
       </c>
     </row>
     <row r="3580">
@@ -82054,7 +82054,7 @@
       </c>
       <c r="I3580" t="inlineStr"/>
       <c r="J3580" t="n">
-        <v>35.0881</v>
+        <v>35.0879</v>
       </c>
     </row>
     <row r="3581">
@@ -82080,7 +82080,7 @@
       </c>
       <c r="I3581" t="inlineStr"/>
       <c r="J3581" t="n">
-        <v>33.785</v>
+        <v>33.7973</v>
       </c>
     </row>
     <row r="3582">
@@ -82106,7 +82106,7 @@
       </c>
       <c r="I3582" t="inlineStr"/>
       <c r="J3582" t="n">
-        <v>35.8151</v>
+        <v>35.8334</v>
       </c>
     </row>
     <row r="3583">
@@ -82132,7 +82132,7 @@
       </c>
       <c r="I3583" t="inlineStr"/>
       <c r="J3583" t="n">
-        <v>31.7074</v>
+        <v>31.7369</v>
       </c>
     </row>
     <row r="3584">
@@ -82164,7 +82164,7 @@
         <v>0.4</v>
       </c>
       <c r="J3584" t="n">
-        <v>33.0748</v>
+        <v>33.0946</v>
       </c>
     </row>
     <row r="3585">
@@ -82190,7 +82190,7 @@
       </c>
       <c r="I3585" t="inlineStr"/>
       <c r="J3585" t="n">
-        <v>24.8083</v>
+        <v>24.8091</v>
       </c>
     </row>
     <row r="3586">
@@ -82216,7 +82216,7 @@
       </c>
       <c r="I3586" t="inlineStr"/>
       <c r="J3586" t="n">
-        <v>21.9554</v>
+        <v>21.9696</v>
       </c>
     </row>
     <row r="3587">
@@ -82242,7 +82242,7 @@
       </c>
       <c r="I3587" t="inlineStr"/>
       <c r="J3587" t="n">
-        <v>21.6094</v>
+        <v>21.631</v>
       </c>
     </row>
     <row r="3588">
@@ -82268,7 +82268,7 @@
       </c>
       <c r="I3588" t="inlineStr"/>
       <c r="J3588" t="n">
-        <v>20.1542</v>
+        <v>20.1685</v>
       </c>
     </row>
     <row r="3589">
@@ -82300,7 +82300,7 @@
         <v>-4.8</v>
       </c>
       <c r="J3589" t="n">
-        <v>21.8379</v>
+        <v>21.829</v>
       </c>
     </row>
     <row r="3590">
@@ -82326,7 +82326,7 @@
       </c>
       <c r="I3590" t="inlineStr"/>
       <c r="J3590" t="n">
-        <v>17.7435</v>
+        <v>17.7438</v>
       </c>
     </row>
     <row r="3591">
@@ -82352,7 +82352,7 @@
       </c>
       <c r="I3591" t="inlineStr"/>
       <c r="J3591" t="n">
-        <v>13.6231</v>
+        <v>13.6453</v>
       </c>
     </row>
     <row r="3592">
@@ -82378,7 +82378,7 @@
       </c>
       <c r="I3592" t="inlineStr"/>
       <c r="J3592" t="n">
-        <v>14.8596</v>
+        <v>14.8886</v>
       </c>
     </row>
     <row r="3593">
@@ -82404,7 +82404,7 @@
       </c>
       <c r="I3593" t="inlineStr"/>
       <c r="J3593" t="n">
-        <v>17.85</v>
+        <v>17.8144</v>
       </c>
     </row>
     <row r="3594">
@@ -82436,7 +82436,7 @@
         <v>-8.4</v>
       </c>
       <c r="J3594" t="n">
-        <v>19.4983</v>
+        <v>19.4158</v>
       </c>
     </row>
     <row r="3595">
@@ -82462,7 +82462,7 @@
       </c>
       <c r="I3595" t="inlineStr"/>
       <c r="J3595" t="n">
-        <v>20.5992</v>
+        <v>20.5596</v>
       </c>
     </row>
     <row r="3596">
@@ -82488,7 +82488,7 @@
       </c>
       <c r="I3596" t="inlineStr"/>
       <c r="J3596" t="n">
-        <v>21.1611</v>
+        <v>21.0676</v>
       </c>
     </row>
     <row r="3597">
@@ -82514,7 +82514,7 @@
       </c>
       <c r="I3597" t="inlineStr"/>
       <c r="J3597" t="n">
-        <v>21.4622</v>
+        <v>21.3736</v>
       </c>
     </row>
     <row r="3598">
@@ -82540,7 +82540,7 @@
       </c>
       <c r="I3598" t="inlineStr"/>
       <c r="J3598" t="n">
-        <v>22.9895</v>
+        <v>22.8983</v>
       </c>
     </row>
     <row r="3599">
@@ -82572,7 +82572,7 @@
         <v>-5</v>
       </c>
       <c r="J3599" t="n">
-        <v>20.044</v>
+        <v>19.9594</v>
       </c>
     </row>
     <row r="3600">
@@ -82598,7 +82598,7 @@
       </c>
       <c r="I3600" t="inlineStr"/>
       <c r="J3600" t="n">
-        <v>22.7407</v>
+        <v>22.7051</v>
       </c>
     </row>
     <row r="3601">
@@ -82624,7 +82624,7 @@
       </c>
       <c r="I3601" t="inlineStr"/>
       <c r="J3601" t="n">
-        <v>25.1247</v>
+        <v>25.0412</v>
       </c>
     </row>
     <row r="3602">
@@ -82650,7 +82650,7 @@
       </c>
       <c r="I3602" t="inlineStr"/>
       <c r="J3602" t="n">
-        <v>27.8735</v>
+        <v>27.7933</v>
       </c>
     </row>
     <row r="3603">
@@ -82676,7 +82676,7 @@
       </c>
       <c r="I3603" t="inlineStr"/>
       <c r="J3603" t="n">
-        <v>28.2245</v>
+        <v>28.145</v>
       </c>
     </row>
     <row r="3604">
@@ -82708,7 +82708,7 @@
         <v>-0.7</v>
       </c>
       <c r="J3604" t="n">
-        <v>32.45</v>
+        <v>32.3709</v>
       </c>
     </row>
     <row r="3605">
@@ -82734,7 +82734,7 @@
       </c>
       <c r="I3605" t="inlineStr"/>
       <c r="J3605" t="n">
-        <v>42.6998</v>
+        <v>42.6606</v>
       </c>
     </row>
     <row r="3606">
@@ -82760,7 +82760,7 @@
       </c>
       <c r="I3606" t="inlineStr"/>
       <c r="J3606" t="n">
-        <v>45.9649</v>
+        <v>45.8711</v>
       </c>
     </row>
     <row r="3607">
@@ -82786,7 +82786,7 @@
       </c>
       <c r="I3607" t="inlineStr"/>
       <c r="J3607" t="n">
-        <v>42.1579</v>
+        <v>42.0679</v>
       </c>
     </row>
     <row r="3608">
@@ -82812,7 +82812,7 @@
       </c>
       <c r="I3608" t="inlineStr"/>
       <c r="J3608" t="n">
-        <v>46.3583</v>
+        <v>46.2599</v>
       </c>
     </row>
     <row r="3609">
@@ -82844,7 +82844,7 @@
         <v>-2.6</v>
       </c>
       <c r="J3609" t="n">
-        <v>47.6909</v>
+        <v>47.5938</v>
       </c>
     </row>
     <row r="3610">
@@ -82868,7 +82868,7 @@
       </c>
       <c r="I3610" t="inlineStr"/>
       <c r="J3610" t="n">
-        <v>47.6111</v>
+        <v>47.5679</v>
       </c>
     </row>
     <row r="3611">
@@ -82894,7 +82894,7 @@
       </c>
       <c r="I3611" t="inlineStr"/>
       <c r="J3611" t="n">
-        <v>50.1201</v>
+        <v>50.0128</v>
       </c>
     </row>
     <row r="3612">
@@ -82920,7 +82920,7 @@
       </c>
       <c r="I3612" t="inlineStr"/>
       <c r="J3612" t="n">
-        <v>49.4115</v>
+        <v>49.3087</v>
       </c>
     </row>
     <row r="3613">
@@ -82946,7 +82946,7 @@
       </c>
       <c r="I3613" t="inlineStr"/>
       <c r="J3613" t="n">
-        <v>44.5277</v>
+        <v>44.4317</v>
       </c>
     </row>
     <row r="3614">
@@ -82978,7 +82978,7 @@
         <v>-3.7</v>
       </c>
       <c r="J3614" t="n">
-        <v>36.6973</v>
+        <v>36.6162</v>
       </c>
     </row>
     <row r="3615">
@@ -83004,7 +83004,7 @@
       </c>
       <c r="I3615" t="inlineStr"/>
       <c r="J3615" t="n">
-        <v>42.6266</v>
+        <v>42.5856</v>
       </c>
     </row>
     <row r="3616">
@@ -83030,7 +83030,7 @@
       </c>
       <c r="I3616" t="inlineStr"/>
       <c r="J3616" t="n">
-        <v>36.1249</v>
+        <v>36.039</v>
       </c>
     </row>
     <row r="3617">
@@ -83056,7 +83056,7 @@
       </c>
       <c r="I3617" t="inlineStr"/>
       <c r="J3617" t="n">
-        <v>37.4943</v>
+        <v>37.4072</v>
       </c>
     </row>
     <row r="3618">
@@ -83082,7 +83082,7 @@
       </c>
       <c r="I3618" t="inlineStr"/>
       <c r="J3618" t="n">
-        <v>40.0472</v>
+        <v>39.9556</v>
       </c>
     </row>
     <row r="3619">
@@ -83114,7 +83114,7 @@
         <v>-2.7</v>
       </c>
       <c r="J3619" t="n">
-        <v>35.7988</v>
+        <v>35.7156</v>
       </c>
     </row>
     <row r="3620">
@@ -83140,7 +83140,7 @@
       </c>
       <c r="I3620" t="inlineStr"/>
       <c r="J3620" t="n">
-        <v>34.652</v>
+        <v>34.6153</v>
       </c>
     </row>
     <row r="3621">
@@ -83166,7 +83166,7 @@
       </c>
       <c r="I3621" t="inlineStr"/>
       <c r="J3621" t="n">
-        <v>36.2042</v>
+        <v>36.1246</v>
       </c>
     </row>
     <row r="3622">
@@ -83192,7 +83192,7 @@
       </c>
       <c r="I3622" t="inlineStr"/>
       <c r="J3622" t="n">
-        <v>36.3086</v>
+        <v>36.2304</v>
       </c>
     </row>
     <row r="3623">
@@ -83218,7 +83218,7 @@
       </c>
       <c r="I3623" t="inlineStr"/>
       <c r="J3623" t="n">
-        <v>37.2687</v>
+        <v>37.1894</v>
       </c>
     </row>
     <row r="3624">
@@ -83250,7 +83250,7 @@
         <v>-6.3</v>
       </c>
       <c r="J3624" t="n">
-        <v>38.5296</v>
+        <v>38.4528</v>
       </c>
     </row>
     <row r="3625">
@@ -83276,7 +83276,7 @@
       </c>
       <c r="I3625" t="inlineStr"/>
       <c r="J3625" t="n">
-        <v>42.9754</v>
+        <v>42.936</v>
       </c>
     </row>
     <row r="3626">
@@ -83302,7 +83302,7 @@
       </c>
       <c r="I3626" t="inlineStr"/>
       <c r="J3626" t="n">
-        <v>42.2508</v>
+        <v>42.1691</v>
       </c>
     </row>
     <row r="3627">
@@ -83328,7 +83328,7 @@
       </c>
       <c r="I3627" t="inlineStr"/>
       <c r="J3627" t="n">
-        <v>39.745</v>
+        <v>39.6656</v>
       </c>
     </row>
     <row r="3628">
@@ -83354,7 +83354,7 @@
       </c>
       <c r="I3628" t="inlineStr"/>
       <c r="J3628" t="n">
-        <v>37.3319</v>
+        <v>37.2532</v>
       </c>
     </row>
     <row r="3629">
@@ -83386,7 +83386,7 @@
         <v>-1.6</v>
       </c>
       <c r="J3629" t="n">
-        <v>40.4177</v>
+        <v>40.3339</v>
       </c>
     </row>
     <row r="3630">
@@ -83428,7 +83428,7 @@
       </c>
       <c r="I3631" t="inlineStr"/>
       <c r="J3631" t="n">
-        <v>30.561</v>
+        <v>30.5227</v>
       </c>
     </row>
     <row r="3632">
@@ -83454,7 +83454,7 @@
       </c>
       <c r="I3632" t="inlineStr"/>
       <c r="J3632" t="n">
-        <v>32.5623</v>
+        <v>32.4773</v>
       </c>
     </row>
     <row r="3633">
@@ -83582,7 +83582,7 @@
       </c>
       <c r="I3639" t="inlineStr"/>
       <c r="J3639" t="n">
-        <v>33.2367</v>
+        <v>33.152</v>
       </c>
     </row>
     <row r="3640">
@@ -83614,7 +83614,7 @@
         <v>0.6</v>
       </c>
       <c r="J3640" t="n">
-        <v>30.7822</v>
+        <v>30.769</v>
       </c>
     </row>
     <row r="3641">
@@ -83656,7 +83656,7 @@
       </c>
       <c r="I3642" t="inlineStr"/>
       <c r="J3642" t="n">
-        <v>35.8181</v>
+        <v>35.8456</v>
       </c>
     </row>
     <row r="3643">
@@ -83682,7 +83682,7 @@
       </c>
       <c r="I3643" t="inlineStr"/>
       <c r="J3643" t="n">
-        <v>32.1521</v>
+        <v>32.2102</v>
       </c>
     </row>
     <row r="3644">
@@ -83708,7 +83708,7 @@
       </c>
       <c r="I3644" t="inlineStr"/>
       <c r="J3644" t="n">
-        <v>32.7726</v>
+        <v>32.8318</v>
       </c>
     </row>
     <row r="3645">
@@ -83734,7 +83734,7 @@
       </c>
       <c r="I3645" t="inlineStr"/>
       <c r="J3645" t="n">
-        <v>32.8037</v>
+        <v>32.8635</v>
       </c>
     </row>
     <row r="3646">
@@ -83766,7 +83766,7 @@
         <v>7.4</v>
       </c>
       <c r="J3646" t="n">
-        <v>33.719</v>
+        <v>33.779</v>
       </c>
     </row>
     <row r="3647">
@@ -83792,7 +83792,7 @@
       </c>
       <c r="I3647" t="inlineStr"/>
       <c r="J3647" t="n">
-        <v>38.3113</v>
+        <v>38.3413</v>
       </c>
     </row>
     <row r="3648">
@@ -83818,7 +83818,7 @@
       </c>
       <c r="I3648" t="inlineStr"/>
       <c r="J3648" t="n">
-        <v>43.6767</v>
+        <v>43.7284</v>
       </c>
     </row>
     <row r="3649">
@@ -83844,7 +83844,7 @@
       </c>
       <c r="I3649" t="inlineStr"/>
       <c r="J3649" t="n">
-        <v>45.9784</v>
+        <v>46.0282</v>
       </c>
     </row>
     <row r="3650">
@@ -83870,7 +83870,7 @@
       </c>
       <c r="I3650" t="inlineStr"/>
       <c r="J3650" t="n">
-        <v>47.1152</v>
+        <v>47.1627</v>
       </c>
     </row>
     <row r="3651">
@@ -83884,7 +83884,7 @@
         <v>-2.7</v>
       </c>
       <c r="D3651" t="n">
-        <v>457.4938</v>
+        <v>484.1943</v>
       </c>
       <c r="E3651" t="n">
         <v>-0.7191</v>
@@ -83902,8 +83902,76 @@
         <v>5.2</v>
       </c>
       <c r="J3651" t="n">
-        <v>44.3693</v>
-      </c>
+        <v>44.4207</v>
+      </c>
+    </row>
+    <row r="3652">
+      <c r="A3652" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3652" t="n">
+        <v>-11</v>
+      </c>
+      <c r="C3652" t="inlineStr"/>
+      <c r="D3652" t="n">
+        <v>424.0243</v>
+      </c>
+      <c r="E3652" t="inlineStr"/>
+      <c r="F3652" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G3652" t="n">
+        <v>-0.982</v>
+      </c>
+      <c r="H3652" t="n">
+        <v>175</v>
+      </c>
+      <c r="I3652" t="inlineStr"/>
+      <c r="J3652" t="n">
+        <v>42.5304</v>
+      </c>
+    </row>
+    <row r="3653">
+      <c r="A3653" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3653" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C3653" t="inlineStr"/>
+      <c r="D3653" t="n">
+        <v>490.9638</v>
+      </c>
+      <c r="E3653" t="inlineStr"/>
+      <c r="F3653" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G3653" t="n">
+        <v>-0.982</v>
+      </c>
+      <c r="H3653" t="n">
+        <v>191</v>
+      </c>
+      <c r="I3653" t="inlineStr"/>
+      <c r="J3653" t="n">
+        <v>41.3102</v>
+      </c>
+    </row>
+    <row r="3654">
+      <c r="A3654" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B3654" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C3654" t="inlineStr"/>
+      <c r="D3654" t="inlineStr"/>
+      <c r="E3654" t="inlineStr"/>
+      <c r="F3654" t="inlineStr"/>
+      <c r="G3654" t="inlineStr"/>
+      <c r="H3654" t="inlineStr"/>
+      <c r="I3654" t="inlineStr"/>
+      <c r="J3654" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
